--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rojherio/Documents/Tarauacá/Delfos/Projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B070B56C-E5EA-4D4D-86B1-75F3FC217DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B513F9-8A0C-0340-B792-0143604757CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="19200" windowHeight="35500" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="28800" windowHeight="35500" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="311">
   <si>
     <t>bsc_banco</t>
   </si>
@@ -523,39 +523,12 @@
     <t>tipo     TYNINT(1) NOT NULL</t>
   </si>
   <si>
-    <t>bsc_pessoa_fisica</t>
-  </si>
-  <si>
-    <t>nome     varchar(130) NOT NULL,</t>
-  </si>
-  <si>
-    <t>nome_social     varchar(130) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>bsc_pessoa_juridica</t>
-  </si>
-  <si>
-    <t>nome_fantasia     varchar(130) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>nome_razao_social     varchar(254) NOT NULL,</t>
-  </si>
-  <si>
-    <t>cpf     varchar(15) NOT NULL,</t>
-  </si>
-  <si>
     <t>dt_nascimento     date DEFAULT NULL,</t>
   </si>
   <si>
     <t>ie     varchar(14) DEFAULT NULL</t>
   </si>
   <si>
-    <t>cnpj     varchar(18) NOT NULL,</t>
-  </si>
-  <si>
-    <t>dt_criacao     date DEFAULT NULL,</t>
-  </si>
-  <si>
     <t>sexo     varchar(1) DEFAULT NULL,</t>
   </si>
   <si>
@@ -958,20 +931,71 @@
     <t>grau     varchar(25) NOT NULL,</t>
   </si>
   <si>
-    <t>sigla     varchar(5) NOT NULL,</t>
-  </si>
-  <si>
-    <t>descricao     varchar(100) NOT NULL,</t>
-  </si>
-  <si>
     <t>descricao     TEXT NOT NULL,</t>
+  </si>
+  <si>
+    <t>nome_curto     varchar(80) NOT NULL,</t>
+  </si>
+  <si>
+    <t>nome     varchar(254) NOT NULL,</t>
+  </si>
+  <si>
+    <t>bsc_grandeza</t>
+  </si>
+  <si>
+    <t>simbolo     varchar(5) NOT NULL,</t>
+  </si>
+  <si>
+    <t>equivalencia     varchar(20) NOT NULL,</t>
+  </si>
+  <si>
+    <r>
+      <t>nome_social     varchar(25</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) DEFAULT NULL,</t>
+    </r>
+  </si>
+  <si>
+    <t>nome e nome fantasia</t>
+  </si>
+  <si>
+    <t>nome e razão social</t>
+  </si>
+  <si>
+    <t>cpf e cnpj</t>
+  </si>
+  <si>
+    <t>cpf     varchar(18) NOT NULL,</t>
+  </si>
+  <si>
+    <t>data de nascimento e data de criação pj</t>
+  </si>
+  <si>
+    <t>inscrição estadual pj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -991,8 +1015,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,6 +1033,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1037,6 +1074,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,13 +1395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F1BE56-E7B1-484D-987F-2029E163EC86}">
-  <dimension ref="A3:E486"/>
+  <dimension ref="A3:E483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A65:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1384,3673 +1427,3656 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C5" s="8"/>
+      <c r="D5" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C6" s="8"/>
+      <c r="D6" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C10" s="8"/>
+      <c r="D10" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C6" s="2"/>
-      <c r="D6" s="1" t="s">
+    <row r="11" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C18" s="8"/>
+      <c r="D18" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
+    <row r="21" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
+    <row r="22" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
+    <row r="23" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C24" s="8"/>
+      <c r="D24" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C25" s="8"/>
+      <c r="D25" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
+    <row r="28" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
+    <row r="29" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C19" s="2"/>
-      <c r="D19" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C20" s="2"/>
-      <c r="D20" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C21" s="2"/>
-      <c r="D21" s="1" t="s">
+    <row r="30" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C30" s="8"/>
+      <c r="D30" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>10</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C23" s="2"/>
-      <c r="D23" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C24" s="2"/>
-      <c r="D24" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C26" s="2"/>
-      <c r="D26" s="1" t="s">
+    <row r="35" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
+        <v>10</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C38" s="8"/>
+      <c r="D38" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C27" s="2"/>
-      <c r="D27" s="1" t="s">
+    <row r="39" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C39" s="8"/>
+      <c r="D39" s="7" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C28" s="2"/>
-      <c r="D28" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C29" s="2"/>
-      <c r="D29" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C32" s="2"/>
-      <c r="D32" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C34" s="2"/>
-      <c r="D34" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C35" s="2"/>
-      <c r="D35" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="C38" s="2"/>
-      <c r="D38" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>13</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1" t="s">
-        <v>163</v>
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>173</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>36</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>39</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="1" t="s">
-        <v>171</v>
+        <v>42</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>42</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>191</v>
+        <v>45</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="1" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="1" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="1" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>58</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="1" t="s">
-        <v>204</v>
+        <v>61</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>61</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>208</v>
+        <v>64</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="1" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>102</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="1" t="s">
-        <v>248</v>
+        <v>105</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A129" s="1">
-        <v>103</v>
-      </c>
       <c r="C129" s="2"/>
-      <c r="D129" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D129" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>104</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="1" t="s">
-        <v>250</v>
+        <v>106</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A131" s="1">
-        <v>105</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C132" s="2"/>
-      <c r="D132" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E132" s="3"/>
+      <c r="A132" s="1">
+        <v>107</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="133" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A133" s="1">
-        <v>106</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C134" s="2"/>
       <c r="D134" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C136" s="2"/>
       <c r="D136" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C137" s="2"/>
-      <c r="D137" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E137" s="3"/>
+      <c r="A137" s="1">
+        <v>109</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="138" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A138" s="1">
-        <v>108</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C139" s="2"/>
       <c r="D139" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>109</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C141" s="2"/>
       <c r="D141" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C142" s="2"/>
       <c r="D142" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C144" s="2"/>
       <c r="D144" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C145" s="2"/>
       <c r="D145" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E145" s="3"/>
     </row>
     <row r="146" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C147" s="2"/>
       <c r="D147" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C148" s="2"/>
-      <c r="D148" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E148" s="3"/>
+      <c r="A148" s="1">
+        <v>113</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="149" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A149" s="1">
-        <v>112</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C150" s="2"/>
       <c r="D150" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E150" s="3"/>
     </row>
     <row r="151" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C152" s="2"/>
       <c r="D152" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C153" s="2"/>
       <c r="D153" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C155" s="2"/>
       <c r="D155" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C156" s="2"/>
       <c r="D156" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C158" s="2"/>
       <c r="D158" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C159" s="2"/>
       <c r="D159" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>116</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C161" s="2"/>
       <c r="D161" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C162" s="2"/>
       <c r="D162" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C164" s="2"/>
       <c r="D164" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C165" s="2"/>
       <c r="D165" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C167" s="2"/>
       <c r="D167" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C168" s="2"/>
-      <c r="D168" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E168" s="3"/>
+      <c r="A168" s="1">
+        <v>120</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="169" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A169" s="1">
-        <v>119</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C170" s="2"/>
       <c r="D170" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C172" s="2"/>
       <c r="D172" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C173" s="2"/>
       <c r="D173" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E173" s="3"/>
     </row>
     <row r="174" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C175" s="2"/>
       <c r="D175" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C176" s="2"/>
       <c r="D176" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E176" s="3"/>
     </row>
     <row r="177" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>122</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C178" s="2"/>
       <c r="D178" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E178" s="3"/>
     </row>
     <row r="179" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C179" s="2"/>
       <c r="D179" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C181" s="2"/>
       <c r="D181" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C182" s="2"/>
       <c r="D182" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>124</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C184" s="2"/>
       <c r="D184" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E184" s="3"/>
     </row>
     <row r="185" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C185" s="2"/>
-      <c r="D185" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E185" s="3"/>
+      <c r="A185" s="1">
+        <v>126</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="186" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A186" s="1">
-        <v>125</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C187" s="2"/>
       <c r="D187" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E187" s="3"/>
     </row>
     <row r="188" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C189" s="2"/>
       <c r="D189" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C190" s="2"/>
       <c r="D190" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E190" s="3"/>
     </row>
     <row r="191" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>127</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C192" s="2"/>
       <c r="D192" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C193" s="2"/>
-      <c r="D193" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E193" s="3"/>
+      <c r="A193" s="1">
+        <v>129</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="194" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A194" s="1">
-        <v>128</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C195" s="2"/>
       <c r="D195" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C197" s="2"/>
       <c r="D197" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C198" s="2"/>
       <c r="D198" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>130</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C200" s="2"/>
       <c r="D200" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C201" s="2"/>
-      <c r="D201" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E201" s="3"/>
+      <c r="A201" s="1">
+        <v>132</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="202" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A202" s="1">
-        <v>131</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C203" s="2"/>
       <c r="D203" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>132</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C205" s="2"/>
       <c r="D205" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C206" s="2"/>
-      <c r="D206" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E206" s="3"/>
+      <c r="A206" s="1">
+        <v>134</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="207" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A207" s="1">
-        <v>133</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C208" s="2"/>
       <c r="D208" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C210" s="2"/>
       <c r="D210" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C211" s="2"/>
       <c r="D211" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E211" s="3"/>
     </row>
     <row r="212" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C213" s="2"/>
       <c r="D213" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C214" s="2"/>
       <c r="D214" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E214" s="3"/>
     </row>
     <row r="215" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A216" s="1">
+        <v>138</v>
+      </c>
       <c r="C216" s="2"/>
-      <c r="D216" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E216" s="3"/>
+      <c r="D216" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="217" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A217" s="1">
+        <v>139</v>
+      </c>
       <c r="C217" s="2"/>
-      <c r="D217" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E217" s="3"/>
+      <c r="D217" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="218" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>146</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="36" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D242" s="2"/>
     </row>
     <row r="243" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>162</v>
-      </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="1" t="s">
-        <v>258</v>
+        <v>165</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>163</v>
-      </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="36" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D245" s="2"/>
     </row>
     <row r="246" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>167</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D248" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="249" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>168</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>262</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D249" s="2"/>
     </row>
     <row r="250" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>170</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D252" s="2"/>
+        <v>271</v>
+      </c>
     </row>
     <row r="253" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>172</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>173</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>177</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>282</v>
+        <v>180</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>178</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>258</v>
+        <v>181</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
-        <v>181</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>285</v>
+        <v>184</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
-        <v>182</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>286</v>
+        <v>185</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
-        <v>183</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C264" s="2"/>
       <c r="D264" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
-        <v>184</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>287</v>
+        <v>187</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
-        <v>186</v>
-      </c>
-      <c r="C267" s="2"/>
-      <c r="D267" s="1" t="s">
-        <v>254</v>
+        <v>189</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="12" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>266</v>
+        <v>137</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A278" s="1">
-        <v>197</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="C278" s="2"/>
+      <c r="D278" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E279" s="3"/>
     </row>
     <row r="280" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A280" s="1">
-        <v>199</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="C280" s="2"/>
+      <c r="D280" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E280" s="3"/>
     </row>
     <row r="281" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C281" s="2"/>
       <c r="D281" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
-        <v>200</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E282" s="3"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="283" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C283" s="2"/>
       <c r="D283" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E283" s="3"/>
     </row>
     <row r="284" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C284" s="2"/>
       <c r="D284" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C286" s="2"/>
-      <c r="D286" s="6" t="s">
-        <v>302</v>
+      <c r="A286" s="1">
+        <v>203</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="C287" s="2"/>
-      <c r="D287" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E287" s="3"/>
+      <c r="A287" s="1">
+        <v>204</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="288" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E292" s="3"/>
     </row>
     <row r="293" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E295" s="3"/>
     </row>
     <row r="296" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E298" s="3"/>
     </row>
     <row r="299" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E301" s="3"/>
     </row>
     <row r="302" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
-        <v>225</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E319" s="3"/>
     </row>
     <row r="320" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E322" s="3"/>
     </row>
     <row r="323" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
-        <v>237</v>
+        <v>240</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
-        <v>240</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E331" s="3"/>
     </row>
     <row r="332" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E334" s="3"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="335" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
-        <v>249</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
-        <v>250</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E342" s="3"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="343" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E344" s="3"/>
     </row>
     <row r="345" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E347" s="3"/>
     </row>
     <row r="348" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E350" s="3"/>
     </row>
     <row r="351" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
-        <v>267</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C353" s="2"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
-        <v>268</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
-        <v>269</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
-        <v>270</v>
-      </c>
-      <c r="C356" s="2"/>
+        <v>273</v>
+      </c>
       <c r="E356" s="3"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E359" s="3"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
-        <v>276</v>
-      </c>
-      <c r="E362" s="3"/>
+        <v>279</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A484" s="1">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A485" s="1">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A486" s="1">
         <v>400</v>
       </c>
     </row>

--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B513F9-8A0C-0340-B792-0143604757CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF900C-2837-654E-94ED-9031CBB37A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="28800" windowHeight="35500" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="312">
   <si>
     <t>bsc_banco</t>
   </si>
@@ -545,27 +545,6 @@
   </si>
   <si>
     <t>natural_estrangeiro_dt_ingresso     date DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>natural_estrangeiro_cidade     varchar(70) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>natural_estrangeiro_estado     varchar(50) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>natural_estrangeiro_condicao_trabalho     varchar(100) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>pai_nome     varchar(130) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>pai_profissao     varchar(70) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>mae_nome     varchar(130) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t>mae_profissao     varchar(70) DEFAULT NULL,</t>
   </si>
   <si>
     <t>foto     varchar(254) DEFAULT NULL,</t>
@@ -989,6 +968,30 @@
   </si>
   <si>
     <t>inscrição estadual pj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>natural_estrangeiro_cidade     varchar(130) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>natural_estrangeiro_estado     varchar(100) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>natural_estrangeiro_condicao_trabalho     varchar(254) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>pai_profissao     varchar(100) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>mae_profissao     varchar(100) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>mae_nome     varchar(254) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>pai_nome     varchar(254) DEFAULT NULL,</t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1401,10 @@
   <dimension ref="A3:E483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A65:XFD69"/>
+      <selection pane="bottomRight" activeCell="A119" sqref="A119:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1438,25 +1441,25 @@
     <row r="5" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C5" s="8"/>
       <c r="D5" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C8" s="8"/>
       <c r="D8" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1470,7 +1473,7 @@
     <row r="10" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C10" s="8"/>
       <c r="D10" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1484,7 +1487,7 @@
     <row r="12" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C12" s="8"/>
       <c r="D12" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1498,13 +1501,13 @@
     <row r="14" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C14" s="8"/>
       <c r="D14" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C15" s="8"/>
       <c r="D15" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1518,13 +1521,13 @@
     <row r="17" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="8"/>
       <c r="D18" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1538,19 +1541,19 @@
     <row r="20" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C21" s="8"/>
       <c r="D21" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C22" s="8"/>
       <c r="D22" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1564,13 +1567,13 @@
     <row r="24" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C24" s="8"/>
       <c r="D24" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C25" s="8"/>
       <c r="D25" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1584,25 +1587,25 @@
     <row r="27" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C28" s="8"/>
       <c r="D28" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C29" s="8"/>
       <c r="D29" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C30" s="8"/>
       <c r="D30" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1616,13 +1619,13 @@
     <row r="32" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C32" s="8"/>
       <c r="D32" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C33" s="8"/>
       <c r="D33" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1630,13 +1633,13 @@
         <v>10</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C35" s="8"/>
       <c r="D35" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1650,826 +1653,828 @@
     <row r="37" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C38" s="8"/>
       <c r="D38" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C39" s="8"/>
       <c r="D39" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <v>11</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>12</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
+        <v>14</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <v>15</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
+        <v>16</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>40</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
-        <v>11</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <v>17</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
+        <v>18</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
+        <v>19</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
+        <v>20</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
+        <v>21</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
+        <v>22</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
+        <v>23</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
-        <v>15</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="53" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>24</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>25</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
+        <v>26</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
+        <v>27</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
-        <v>16</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="1" t="s">
+      <c r="D56" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
-        <v>40</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="57" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
+        <v>28</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>17</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="58" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
+        <v>29</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
+        <v>30</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <v>18</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
-        <v>19</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
-        <v>20</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
-        <v>21</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
-        <v>22</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="1" t="s">
+    </row>
+    <row r="60" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A60" s="7">
+        <v>31</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>23</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="1" t="s">
+    <row r="61" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
+        <v>32</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
-        <v>24</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="1" t="s">
+    <row r="62" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A62" s="7">
+        <v>33</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
-        <v>25</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="1" t="s">
+    <row r="63" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A63" s="7">
+        <v>34</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A55" s="1">
-        <v>26</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
-        <v>27</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="1" t="s">
+    <row r="64" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
+        <v>35</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
-        <v>28</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="1" t="s">
+    <row r="65" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A65" s="7">
+        <v>42</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
-        <v>29</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
-        <v>30</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="1" t="s">
+    <row r="66" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A66" s="7">
+        <v>43</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
-        <v>31</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="1" t="s">
+    <row r="67" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
+        <v>44</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
-        <v>32</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="1" t="s">
+    <row r="68" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
+        <v>45</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
-        <v>33</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="1" t="s">
+    <row r="69" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
+        <v>46</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
-        <v>34</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="1" t="s">
+    <row r="70" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A70" s="7">
+        <v>47</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
-        <v>35</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="1" t="s">
+    <row r="71" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>48</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
+        <v>49</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
-        <v>42</v>
-      </c>
-      <c r="C65" s="2" t="s">
+    <row r="73" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
+        <v>50</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
-        <v>43</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="1" t="s">
+    <row r="74" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
+        <v>51</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
-        <v>44</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="1" t="s">
+    <row r="75" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
+        <v>52</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
-        <v>45</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="1" t="s">
+    <row r="76" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A76" s="7">
+        <v>53</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
+        <v>54</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
-        <v>46</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="1" t="s">
+    <row r="78" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A78" s="7">
+        <v>55</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
-        <v>47</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="1" t="s">
+    <row r="79" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
+        <v>56</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
-        <v>48</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
-        <v>49</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="1" t="s">
+    <row r="80" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
+        <v>57</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
+        <v>58</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
-        <v>50</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="1" t="s">
+    <row r="82" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A82" s="7">
+        <v>59</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
-        <v>51</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="1" t="s">
+    <row r="83" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
+        <v>60</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
-        <v>52</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
-        <v>53</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
-        <v>54</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="1" t="s">
+    <row r="84" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
+        <v>61</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A78" s="1">
-        <v>55</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="1" t="s">
+    <row r="85" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
+        <v>62</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
-        <v>56</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="1" t="s">
+    <row r="86" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A86" s="7">
+        <v>63</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
-        <v>57</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="1" t="s">
+    <row r="87" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
+        <v>64</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A88" s="7">
+        <v>65</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
+        <v>66</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A90" s="7">
+        <v>67</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
-        <v>58</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
-        <v>59</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
-        <v>60</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
-        <v>61</v>
-      </c>
-      <c r="C84" s="2" t="s">
+    <row r="91" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
+        <v>68</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A85" s="1">
-        <v>62</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="1" t="s">
+    <row r="92" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A92" s="7">
+        <v>69</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
-        <v>63</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="1" t="s">
+    <row r="93" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>70</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
-        <v>64</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="1" t="s">
+    <row r="94" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A94" s="7">
+        <v>71</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
-        <v>65</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="1" t="s">
+    <row r="95" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
+        <v>72</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
-        <v>66</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="1" t="s">
+    <row r="96" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
+        <v>73</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
-        <v>67</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="1" t="s">
+    <row r="97" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>74</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A98" s="7">
+        <v>75</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A91" s="1">
-        <v>68</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="1" t="s">
+    <row r="99" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
+        <v>76</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
-        <v>69</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="1" t="s">
+    <row r="100" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A100" s="7">
+        <v>77</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A93" s="1">
-        <v>70</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="1" t="s">
+    <row r="101" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
+        <v>78</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A94" s="1">
-        <v>71</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="1" t="s">
+    <row r="102" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A102" s="7">
+        <v>79</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A95" s="1">
-        <v>72</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="1" t="s">
+    <row r="103" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
+        <v>80</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
-        <v>73</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="1" t="s">
+    <row r="104" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A104" s="7">
+        <v>81</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
-        <v>74</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
-        <v>75</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="1" t="s">
+    <row r="105" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A105" s="7">
+        <v>82</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
-        <v>76</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="1" t="s">
+    <row r="106" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A106" s="7">
+        <v>83</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
-        <v>77</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="1" t="s">
+    <row r="107" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A107" s="7">
+        <v>84</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A101" s="1">
-        <v>78</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="1" t="s">
+    <row r="108" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A108" s="7">
+        <v>85</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A102" s="1">
-        <v>79</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="1" t="s">
+    <row r="109" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A109" s="7">
+        <v>86</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A103" s="1">
-        <v>80</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="1" t="s">
+    <row r="110" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A110" s="7">
+        <v>87</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A104" s="1">
-        <v>81</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="1" t="s">
+    <row r="111" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A111" s="7">
+        <v>88</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A105" s="1">
-        <v>82</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="1" t="s">
+    <row r="112" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A112" s="7">
+        <v>89</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A106" s="1">
-        <v>83</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="1" t="s">
+    <row r="113" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A113" s="7">
+        <v>90</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A107" s="1">
-        <v>84</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="1" t="s">
+    <row r="114" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A114" s="7">
+        <v>91</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A108" s="1">
-        <v>85</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="1" t="s">
+    <row r="115" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A115" s="7">
+        <v>92</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A109" s="1">
-        <v>86</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="1" t="s">
+    <row r="116" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A116" s="7">
+        <v>93</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A110" s="1">
-        <v>87</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="1" t="s">
+    <row r="117" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A117" s="7">
+        <v>94</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A111" s="1">
-        <v>88</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="1" t="s">
+    <row r="118" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A118" s="7">
+        <v>95</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
-        <v>89</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="1" t="s">
+    <row r="119" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A119" s="7">
+        <v>96</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A113" s="1">
-        <v>90</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="1" t="s">
+    <row r="120" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A120" s="7">
+        <v>97</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A114" s="1">
-        <v>91</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="1" t="s">
+    <row r="121" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A121" s="7">
+        <v>98</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A115" s="1">
-        <v>92</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="1" t="s">
+    <row r="122" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A122" s="7">
+        <v>99</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A116" s="1">
-        <v>93</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="1" t="s">
+    <row r="123" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A123" s="7">
+        <v>100</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A117" s="1">
-        <v>94</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="1" t="s">
+    <row r="124" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A124" s="7">
+        <v>101</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A118" s="1">
-        <v>95</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="1" t="s">
+    <row r="125" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A125" s="7">
+        <v>102</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A119" s="1">
-        <v>96</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="1" t="s">
+    <row r="126" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A126" s="7">
+        <v>103</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A120" s="1">
-        <v>97</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="1" t="s">
+    <row r="127" spans="1:4" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A127" s="7">
+        <v>104</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="7" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A121" s="1">
-        <v>98</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A122" s="1">
-        <v>99</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A123" s="1">
-        <v>100</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A124" s="1">
-        <v>101</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A125" s="1">
-        <v>102</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A126" s="1">
-        <v>103</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="12" x14ac:dyDescent="0.15">
-      <c r="A127" s="1">
-        <v>104</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -2483,7 +2488,7 @@
     <row r="129" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C129" s="2"/>
       <c r="D129" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E129" s="3"/>
     </row>
@@ -2498,7 +2503,7 @@
     <row r="131" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C131" s="2"/>
       <c r="D131" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E131" s="3"/>
     </row>
@@ -2516,14 +2521,14 @@
     <row r="133" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C133" s="2"/>
       <c r="D133" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C134" s="2"/>
       <c r="D134" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E134" s="3"/>
     </row>
@@ -2541,7 +2546,7 @@
     <row r="136" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C136" s="2"/>
       <c r="D136" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E136" s="3"/>
     </row>
@@ -2559,14 +2564,14 @@
     <row r="138" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C138" s="2"/>
       <c r="D138" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C139" s="2"/>
       <c r="D139" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E139" s="3"/>
     </row>
@@ -2581,14 +2586,14 @@
     <row r="141" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C141" s="2"/>
       <c r="D141" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C142" s="2"/>
       <c r="D142" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E142" s="3"/>
     </row>
@@ -2606,14 +2611,14 @@
     <row r="144" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C144" s="2"/>
       <c r="D144" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C145" s="2"/>
       <c r="D145" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E145" s="3"/>
     </row>
@@ -2631,7 +2636,7 @@
     <row r="147" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C147" s="2"/>
       <c r="D147" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E147" s="3"/>
     </row>
@@ -2649,14 +2654,14 @@
     <row r="149" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C149" s="2"/>
       <c r="D149" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C150" s="2"/>
       <c r="D150" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E150" s="3"/>
     </row>
@@ -2674,14 +2679,14 @@
     <row r="152" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C152" s="2"/>
       <c r="D152" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C153" s="2"/>
       <c r="D153" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E153" s="3"/>
     </row>
@@ -2699,14 +2704,14 @@
     <row r="155" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C155" s="2"/>
       <c r="D155" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C156" s="2"/>
       <c r="D156" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E156" s="3"/>
     </row>
@@ -2724,14 +2729,14 @@
     <row r="158" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C158" s="2"/>
       <c r="D158" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C159" s="2"/>
       <c r="D159" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E159" s="3"/>
     </row>
@@ -2746,14 +2751,14 @@
     <row r="161" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C161" s="2"/>
       <c r="D161" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C162" s="2"/>
       <c r="D162" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E162" s="3"/>
     </row>
@@ -2768,14 +2773,14 @@
     <row r="164" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C164" s="2"/>
       <c r="D164" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C165" s="2"/>
       <c r="D165" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E165" s="3"/>
     </row>
@@ -2790,7 +2795,7 @@
     <row r="167" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C167" s="2"/>
       <c r="D167" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E167" s="3"/>
     </row>
@@ -2808,14 +2813,14 @@
     <row r="169" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C169" s="2"/>
       <c r="D169" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C170" s="2"/>
       <c r="D170" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E170" s="3"/>
     </row>
@@ -2833,14 +2838,14 @@
     <row r="172" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C172" s="2"/>
       <c r="D172" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C173" s="2"/>
       <c r="D173" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E173" s="3"/>
     </row>
@@ -2858,14 +2863,14 @@
     <row r="175" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C175" s="2"/>
       <c r="D175" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C176" s="2"/>
       <c r="D176" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E176" s="3"/>
     </row>
@@ -2880,14 +2885,14 @@
     <row r="178" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C178" s="2"/>
       <c r="D178" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E178" s="3"/>
     </row>
     <row r="179" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C179" s="2"/>
       <c r="D179" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E179" s="3"/>
     </row>
@@ -2905,14 +2910,14 @@
     <row r="181" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C181" s="2"/>
       <c r="D181" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C182" s="2"/>
       <c r="D182" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E182" s="3"/>
     </row>
@@ -2927,7 +2932,7 @@
     <row r="184" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C184" s="2"/>
       <c r="D184" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E184" s="3"/>
     </row>
@@ -2945,14 +2950,14 @@
     <row r="186" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C186" s="2"/>
       <c r="D186" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C187" s="2"/>
       <c r="D187" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E187" s="3"/>
     </row>
@@ -2970,14 +2975,14 @@
     <row r="189" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C189" s="2"/>
       <c r="D189" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C190" s="2"/>
       <c r="D190" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E190" s="3"/>
     </row>
@@ -2992,7 +2997,7 @@
     <row r="192" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C192" s="2"/>
       <c r="D192" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E192" s="3"/>
     </row>
@@ -3010,14 +3015,14 @@
     <row r="194" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C194" s="2"/>
       <c r="D194" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C195" s="2"/>
       <c r="D195" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E195" s="3"/>
     </row>
@@ -3035,14 +3040,14 @@
     <row r="197" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C197" s="2"/>
       <c r="D197" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C198" s="2"/>
       <c r="D198" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E198" s="3"/>
     </row>
@@ -3057,7 +3062,7 @@
     <row r="200" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C200" s="2"/>
       <c r="D200" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E200" s="3"/>
     </row>
@@ -3075,14 +3080,14 @@
     <row r="202" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C202" s="2"/>
       <c r="D202" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C203" s="2"/>
       <c r="D203" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E203" s="3"/>
     </row>
@@ -3097,7 +3102,7 @@
     <row r="205" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C205" s="2"/>
       <c r="D205" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E205" s="3"/>
     </row>
@@ -3115,14 +3120,14 @@
     <row r="207" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C207" s="2"/>
       <c r="D207" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C208" s="2"/>
       <c r="D208" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E208" s="3"/>
     </row>
@@ -3140,14 +3145,14 @@
     <row r="210" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C210" s="2"/>
       <c r="D210" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C211" s="2"/>
       <c r="D211" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E211" s="3"/>
     </row>
@@ -3165,14 +3170,14 @@
     <row r="213" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C213" s="2"/>
       <c r="D213" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C214" s="2"/>
       <c r="D214" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E214" s="3"/>
     </row>
@@ -3184,7 +3189,7 @@
         <v>127</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3193,7 +3198,7 @@
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3202,7 +3207,7 @@
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3213,7 +3218,7 @@
         <v>128</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3222,7 +3227,7 @@
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3231,7 +3236,7 @@
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3242,7 +3247,7 @@
         <v>129</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3251,7 +3256,7 @@
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3260,7 +3265,7 @@
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3271,7 +3276,7 @@
         <v>130</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3280,7 +3285,7 @@
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3289,7 +3294,7 @@
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3297,7 +3302,7 @@
         <v>149</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3306,7 +3311,7 @@
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3315,7 +3320,7 @@
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="36" x14ac:dyDescent="0.15">
@@ -3326,7 +3331,7 @@
         <v>136</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3335,7 +3340,7 @@
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3344,7 +3349,7 @@
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3355,7 +3360,7 @@
         <v>132</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3364,7 +3369,7 @@
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3373,7 +3378,7 @@
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3384,7 +3389,7 @@
         <v>135</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3393,7 +3398,7 @@
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3402,7 +3407,7 @@
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3410,10 +3415,10 @@
         <v>161</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3422,7 +3427,7 @@
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3431,7 +3436,7 @@
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="36" x14ac:dyDescent="0.15">
@@ -3442,7 +3447,7 @@
         <v>136</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D242" s="2"/>
     </row>
@@ -3451,7 +3456,7 @@
         <v>165</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3459,7 +3464,7 @@
         <v>166</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3470,7 +3475,7 @@
         <v>132</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D245" s="2"/>
     </row>
@@ -3479,7 +3484,7 @@
         <v>168</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3487,7 +3492,7 @@
         <v>169</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -3509,7 +3514,7 @@
         <v>135</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D249" s="2"/>
     </row>
@@ -3518,7 +3523,7 @@
         <v>172</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3526,7 +3531,7 @@
         <v>173</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="24" x14ac:dyDescent="0.15">
@@ -3534,10 +3539,10 @@
         <v>174</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3545,7 +3550,7 @@
         <v>175</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3553,7 +3558,7 @@
         <v>176</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3561,10 +3566,10 @@
         <v>177</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3572,7 +3577,7 @@
         <v>178</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3580,7 +3585,7 @@
         <v>179</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3588,7 +3593,7 @@
         <v>180</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3596,7 +3601,7 @@
         <v>181</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3604,7 +3609,7 @@
         <v>182</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3612,7 +3617,7 @@
         <v>183</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3620,7 +3625,7 @@
         <v>184</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3640,7 +3645,7 @@
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3651,7 +3656,7 @@
         <v>126</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3662,7 +3667,7 @@
         <v>127</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3673,7 +3678,7 @@
         <v>128</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3684,7 +3689,7 @@
         <v>129</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3695,7 +3700,7 @@
         <v>130</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="24" x14ac:dyDescent="0.15">
@@ -3706,7 +3711,7 @@
         <v>131</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3714,10 +3719,10 @@
         <v>193</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="12" x14ac:dyDescent="0.15">
@@ -3725,10 +3730,10 @@
         <v>194</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3789,7 +3794,7 @@
     <row r="278" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C278" s="2"/>
       <c r="D278" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E278" s="3"/>
     </row>
@@ -3808,14 +3813,14 @@
     <row r="280" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C280" s="2"/>
       <c r="D280" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E280" s="3"/>
     </row>
     <row r="281" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C281" s="2"/>
       <c r="D281" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E281" s="3"/>
     </row>
@@ -3830,14 +3835,14 @@
     <row r="283" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C283" s="2"/>
       <c r="D283" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E283" s="3"/>
     </row>
     <row r="284" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="C284" s="2"/>
       <c r="D284" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E284" s="3"/>
     </row>

--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF900C-2837-654E-94ED-9031CBB37A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50CB74-54E2-5440-B06B-F53703720EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="28800" windowHeight="35500" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
@@ -1401,10 +1401,10 @@
   <dimension ref="A3:E483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A119" sqref="A119:XFD127"/>
+      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="11" x14ac:dyDescent="0.15"/>

--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50CB74-54E2-5440-B06B-F53703720EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3788E-DBD0-304E-86FA-464A32DFEA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="28800" windowHeight="35500" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="57600" windowHeight="35500" activeTab="1" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
+    <sheet name="GeradorPHP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="358">
   <si>
     <t>bsc_banco</t>
   </si>
@@ -993,12 +994,150 @@
   <si>
     <t>pai_nome     varchar(254) DEFAULT NULL,</t>
   </si>
+  <si>
+    <t xml:space="preserve">  `status` tinyint(1) NOT NULL DEFAULT '0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `dt_cadastro` timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `tipo` varchar(45) NOT NULL COMMENT '1 = física, 2 = jurídica',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `nome` varchar(254) NOT NULL COMMENT 'Nome e nome_razao_social',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `nome_social` varchar(245) DEFAULT NULL COMMENT 'Nome_social e nome_fantasia',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `cpf` varchar(18) NOT NULL COMMENT 'Cpf e cnpj',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `ie` varchar(45) DEFAULT NULL COMMENT 'Inscrição estadual Pessoa Jurídica',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `dt_nascimento` date DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `sexo` varchar(9) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `natural_bsc_pais_id` int(11) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `natural_bsc_municipio_id` int(11) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `natural_estrangeiro_dt_ingresso` date DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `natural_estrangeiro_cidade` varchar(130) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `natural_estrangeiro_estado` varchar(100) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `natural_estrangeiro_condicao_trabalho` varchar(254) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `pai_nome` varchar(254) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `pai_natural_bsc_pais_id` int(11) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `pai_profissao` varchar(100) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `mae_nome` varchar(254) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `mae_natural_bsc_pais_id` int(11) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `mae_profissao` varchar(45) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `foto` varchar(254) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `sangue_tipo` varchar(3) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `raca` varchar(50) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `enfermedade_portador` varchar(100) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `enfermedade_codigo_internacional` varchar(10) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `dt_criacao` date DEFAULT NULL COMMENT 'Pessoa jurídica',</t>
+  </si>
+  <si>
+    <t>p_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `id` int(11) NOT NULL AUTO_INCREMENT,</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Campo Banco</t>
+  </si>
+  <si>
+    <t>Nome Campo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Requerido</t>
+  </si>
+  <si>
+    <t>Aux1</t>
+  </si>
+  <si>
+    <t>Aux2</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>$rsPessoa</t>
+  </si>
+  <si>
+    <t>SET INITIALIZE</t>
+  </si>
+  <si>
+    <t>SET BINDVALUE</t>
+  </si>
+  <si>
+    <t>Somente as células com fundo azul podem e devem ser modificadas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1025,8 +1164,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1045,8 +1200,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1054,11 +1221,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1083,6 +1308,37 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1400,11 +1656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F1BE56-E7B1-484D-987F-2029E163EC86}">
   <dimension ref="A3:E483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -5088,4 +5344,5546 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488E7A0-5FC7-8C46-9378-12741E521CD7}">
+  <dimension ref="A1:P105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.83203125" customWidth="1"/>
+    <col min="4" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="80.83203125" customWidth="1"/>
+    <col min="12" max="12" width="220.83203125" customWidth="1"/>
+    <col min="13" max="13" width="120.83203125" customWidth="1"/>
+    <col min="14" max="15" width="60.83203125" customWidth="1"/>
+    <col min="16" max="16" width="80.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="13" t="str">
+        <f t="shared" ref="F5:F32" si="0">IFERROR(MID(C5,(FIND("`",C5)+1),(FIND("` ",C5)-(FIND("`",C5)+1))),"")</f>
+        <v>id</v>
+      </c>
+      <c r="G5" s="13" t="str">
+        <f>IFERROR(MID(C5,(FIND("` ",C5)+2),(IFERROR(FIND("NOT",C5),FIND("DEFAULT",C5))-(FIND("` ",C5)+3))),"")</f>
+        <v>int(11)</v>
+      </c>
+      <c r="H5" s="13" t="str">
+        <f t="shared" ref="H5:H32" si="1">IFERROR(MID(C5,(FIND("(",C5)+1),(FIND(")",C5)-(FIND("(",C5)+1))),"")</f>
+        <v>11</v>
+      </c>
+      <c r="I5" s="13" t="str">
+        <f>IF((IFERROR(FIND("NOT NULL",C5),0))&gt;0,"true","false")</f>
+        <v>true</v>
+      </c>
+      <c r="J5" s="13" t="str">
+        <f>CONCATENATE(B5,F5,", ")</f>
+        <v xml:space="preserve">p_id, </v>
+      </c>
+      <c r="K5" s="13" t="str">
+        <f>CONCATENATE(K$4,"['",F5,"'] = '';")</f>
+        <v>$rsPessoa['id'] = '';</v>
+      </c>
+      <c r="L5" s="13" t="str">
+        <f>CONCATENATE("'name' =&gt; '",B5,F5,"',    ","'id' =&gt; '",B5,F5,"',    ","'maxlength' =&gt; ",H5,",    ","'value' =&gt; ",K$4,"['",F5,"'],    ","'required' =&gt; ",I5)</f>
+        <v>'name' =&gt; 'p_id',    'id' =&gt; 'p_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsPessoa['id'],    'required' =&gt; true</v>
+      </c>
+      <c r="M5" s="13" t="str">
+        <f>CONCATENATE("$",F5,"    = ",IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),"","ucwords(strtolower("),"strip_tags(@$_POST['",B5,F5,"']?: ",IF(F5="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),";","));"))</f>
+        <v>$id    = ucwords(strtolower(strip_tags(@$_POST['p_id']?: '')));</v>
+      </c>
+      <c r="N5" s="13" t="str">
+        <f>CONCATENATE(F5," = ?,")</f>
+        <v>id = ?,</v>
+      </c>
+      <c r="O5" s="13" t="str">
+        <f>CONCATENATE(F5,",")</f>
+        <v>id,</v>
+      </c>
+      <c r="P5" s="14" t="str">
+        <f>CONCATENATE("$stmt-&gt;bindValue(",A5,", $",F5,IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0),"? NULL);",");"))</f>
+        <v>$stmt-&gt;bindValue(1, $id);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>status</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" ref="G6:G32" si="2">IFERROR(MID(C6,(FIND("` ",C6)+2),(IFERROR(FIND("NOT",C6),FIND("DEFAULT",C6))-(FIND("` ",C6)+3))),"")</f>
+        <v>tinyint(1)</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="9" t="str">
+        <f>IF((IFERROR(FIND("NOT NULL",C6),0))&gt;0,"true","false")</f>
+        <v>true</v>
+      </c>
+      <c r="J6" s="9" t="str">
+        <f t="shared" ref="J6:J69" si="3">CONCATENATE(B6,F6,", ")</f>
+        <v xml:space="preserve">p_status, </v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="shared" ref="K6:K69" si="4">CONCATENATE(K$4,"['",F6,"'] = '';")</f>
+        <v>$rsPessoa['status'] = '';</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f t="shared" ref="L6:L69" si="5">CONCATENATE("'name' =&gt; '",B6,F6,"',    ","'id' =&gt; '",B6,F6,"',    ","'maxlength' =&gt; ",H6,",    ","'value' =&gt; ",K$4,"['",F6,"'],    ","'required' =&gt; ",I6)</f>
+        <v>'name' =&gt; 'p_status',    'id' =&gt; 'p_status',    'maxlength' =&gt; 1,    'value' =&gt; $rsPessoa['status'],    'required' =&gt; true</v>
+      </c>
+      <c r="M6" s="13" t="str">
+        <f t="shared" ref="M6:M69" si="6">CONCATENATE("$",F6,"    = ",IF(OR(IFERROR(FIND("dt_",F6),0)&gt;0,IFERROR(FIND("_id",F6),0)&gt;0,F6="status"),"","ucwords(strtolower("),"strip_tags(@$_POST['",B6,F6,"']?: ",IF(F6="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F6),0)&gt;0,IFERROR(FIND("_id",F6),0)&gt;0,F6="status"),";","));"))</f>
+        <v>$status    = strip_tags(@$_POST['p_status']?: 0);</v>
+      </c>
+      <c r="N6" s="9" t="str">
+        <f t="shared" ref="N6:N69" si="7">CONCATENATE(F6," = ?,")</f>
+        <v>status = ?,</v>
+      </c>
+      <c r="O6" s="9" t="str">
+        <f>CONCATENATE(F6,",")</f>
+        <v>status,</v>
+      </c>
+      <c r="P6" s="10" t="str">
+        <f t="shared" ref="P6:P69" si="8">CONCATENATE("$stmt-&gt;bindValue(",A6,", $",F6,IF(OR(IFERROR(FIND("dt_",F6),0)&gt;0,IFERROR(FIND("_id",F6),0)&gt;0),"? NULL);",");"))</f>
+        <v>$stmt-&gt;bindValue(2, $status);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>dt_cadastro</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>timestamp</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I7" s="9" t="str">
+        <f t="shared" ref="I7:I70" si="9">IF((IFERROR(FIND("NOT NULL",C7),0))&gt;0,"true","false")</f>
+        <v>true</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_dt_cadastro, </v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['dt_cadastro'] = '';</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_dt_cadastro',    'id' =&gt; 'p_dt_cadastro',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa['dt_cadastro'],    'required' =&gt; true</v>
+      </c>
+      <c r="M7" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$dt_cadastro    = strip_tags(@$_POST['p_dt_cadastro']?: '');</v>
+      </c>
+      <c r="N7" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>dt_cadastro = ?,</v>
+      </c>
+      <c r="O7" s="9" t="str">
+        <f>CONCATENATE(F7,",")</f>
+        <v>dt_cadastro,</v>
+      </c>
+      <c r="P7" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(3, $dt_cadastro? NULL);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>tipo</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(45)</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_tipo, </v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['tipo'] = '';</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_tipo',    'id' =&gt; 'p_tipo',    'maxlength' =&gt; 45,    'value' =&gt; $rsPessoa['tipo'],    'required' =&gt; true</v>
+      </c>
+      <c r="M8" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$tipo    = ucwords(strtolower(strip_tags(@$_POST['p_tipo']?: '')));</v>
+      </c>
+      <c r="N8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>tipo = ?,</v>
+      </c>
+      <c r="O8" s="9" t="str">
+        <f>CONCATENATE(F8,",")</f>
+        <v>tipo,</v>
+      </c>
+      <c r="P8" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(4, $tipo);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>nome</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(254)</v>
+      </c>
+      <c r="H9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_nome, </v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['nome'] = '';</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_nome',    'id' =&gt; 'p_nome',    'maxlength' =&gt; 254,    'value' =&gt; $rsPessoa['nome'],    'required' =&gt; true</v>
+      </c>
+      <c r="M9" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$nome    = ucwords(strtolower(strip_tags(@$_POST['p_nome']?: '')));</v>
+      </c>
+      <c r="N9" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>nome = ?,</v>
+      </c>
+      <c r="O9" s="9" t="str">
+        <f>CONCATENATE(F9,",")</f>
+        <v>nome,</v>
+      </c>
+      <c r="P9" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(5, $nome);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>nome_social</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(245)</v>
+      </c>
+      <c r="H10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="I10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_nome_social, </v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['nome_social'] = '';</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_nome_social',    'id' =&gt; 'p_nome_social',    'maxlength' =&gt; 245,    'value' =&gt; $rsPessoa['nome_social'],    'required' =&gt; false</v>
+      </c>
+      <c r="M10" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$nome_social    = ucwords(strtolower(strip_tags(@$_POST['p_nome_social']?: '')));</v>
+      </c>
+      <c r="N10" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>nome_social = ?,</v>
+      </c>
+      <c r="O10" s="9" t="str">
+        <f>CONCATENATE(F10,",")</f>
+        <v>nome_social,</v>
+      </c>
+      <c r="P10" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(6, $nome_social);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>cpf</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(18)</v>
+      </c>
+      <c r="H11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I11" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>true</v>
+      </c>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_cpf, </v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['cpf'] = '';</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_cpf',    'id' =&gt; 'p_cpf',    'maxlength' =&gt; 18,    'value' =&gt; $rsPessoa['cpf'],    'required' =&gt; true</v>
+      </c>
+      <c r="M11" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$cpf    = ucwords(strtolower(strip_tags(@$_POST['p_cpf']?: '')));</v>
+      </c>
+      <c r="N11" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>cpf = ?,</v>
+      </c>
+      <c r="O11" s="9" t="str">
+        <f>CONCATENATE(F11,",")</f>
+        <v>cpf,</v>
+      </c>
+      <c r="P11" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(7, $cpf);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ie</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(45)</v>
+      </c>
+      <c r="H12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I12" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_ie, </v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['ie'] = '';</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_ie',    'id' =&gt; 'p_ie',    'maxlength' =&gt; 45,    'value' =&gt; $rsPessoa['ie'],    'required' =&gt; false</v>
+      </c>
+      <c r="M12" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$ie    = ucwords(strtolower(strip_tags(@$_POST['p_ie']?: '')));</v>
+      </c>
+      <c r="N12" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>ie = ?,</v>
+      </c>
+      <c r="O12" s="9" t="str">
+        <f>CONCATENATE(F12,",")</f>
+        <v>ie,</v>
+      </c>
+      <c r="P12" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(8, $ie);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>dt_nascimento</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>date</v>
+      </c>
+      <c r="H13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_dt_nascimento, </v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['dt_nascimento'] = '';</v>
+      </c>
+      <c r="L13" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_dt_nascimento',    'id' =&gt; 'p_dt_nascimento',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa['dt_nascimento'],    'required' =&gt; false</v>
+      </c>
+      <c r="M13" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$dt_nascimento    = strip_tags(@$_POST['p_dt_nascimento']?: '');</v>
+      </c>
+      <c r="N13" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>dt_nascimento = ?,</v>
+      </c>
+      <c r="O13" s="9" t="str">
+        <f>CONCATENATE(F13,",")</f>
+        <v>dt_nascimento,</v>
+      </c>
+      <c r="P13" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(9, $dt_nascimento? NULL);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>dt_criacao</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>date</v>
+      </c>
+      <c r="H14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I14" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_dt_criacao, </v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['dt_criacao'] = '';</v>
+      </c>
+      <c r="L14" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_dt_criacao',    'id' =&gt; 'p_dt_criacao',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa['dt_criacao'],    'required' =&gt; false</v>
+      </c>
+      <c r="M14" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$dt_criacao    = strip_tags(@$_POST['p_dt_criacao']?: '');</v>
+      </c>
+      <c r="N14" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>dt_criacao = ?,</v>
+      </c>
+      <c r="O14" s="9" t="str">
+        <f>CONCATENATE(F14,",")</f>
+        <v>dt_criacao,</v>
+      </c>
+      <c r="P14" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(10, $dt_criacao? NULL);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>sexo</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(9)</v>
+      </c>
+      <c r="H15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_sexo, </v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['sexo'] = '';</v>
+      </c>
+      <c r="L15" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_sexo',    'id' =&gt; 'p_sexo',    'maxlength' =&gt; 9,    'value' =&gt; $rsPessoa['sexo'],    'required' =&gt; false</v>
+      </c>
+      <c r="M15" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$sexo    = ucwords(strtolower(strip_tags(@$_POST['p_sexo']?: '')));</v>
+      </c>
+      <c r="N15" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>sexo = ?,</v>
+      </c>
+      <c r="O15" s="9" t="str">
+        <f>CONCATENATE(F15,",")</f>
+        <v>sexo,</v>
+      </c>
+      <c r="P15" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(11, $sexo);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>natural_bsc_pais_id</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>int(11)</v>
+      </c>
+      <c r="H16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I16" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_natural_bsc_pais_id, </v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['natural_bsc_pais_id'] = '';</v>
+      </c>
+      <c r="L16" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_natural_bsc_pais_id',    'id' =&gt; 'p_natural_bsc_pais_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsPessoa['natural_bsc_pais_id'],    'required' =&gt; false</v>
+      </c>
+      <c r="M16" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$natural_bsc_pais_id    = strip_tags(@$_POST['p_natural_bsc_pais_id']?: '');</v>
+      </c>
+      <c r="N16" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>natural_bsc_pais_id = ?,</v>
+      </c>
+      <c r="O16" s="9" t="str">
+        <f>CONCATENATE(F16,",")</f>
+        <v>natural_bsc_pais_id,</v>
+      </c>
+      <c r="P16" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(12, $natural_bsc_pais_id? NULL);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>natural_bsc_municipio_id</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>int(11)</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I17" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_natural_bsc_municipio_id, </v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['natural_bsc_municipio_id'] = '';</v>
+      </c>
+      <c r="L17" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_natural_bsc_municipio_id',    'id' =&gt; 'p_natural_bsc_municipio_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsPessoa['natural_bsc_municipio_id'],    'required' =&gt; false</v>
+      </c>
+      <c r="M17" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$natural_bsc_municipio_id    = strip_tags(@$_POST['p_natural_bsc_municipio_id']?: '');</v>
+      </c>
+      <c r="N17" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>natural_bsc_municipio_id = ?,</v>
+      </c>
+      <c r="O17" s="9" t="str">
+        <f>CONCATENATE(F17,",")</f>
+        <v>natural_bsc_municipio_id,</v>
+      </c>
+      <c r="P17" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(13, $natural_bsc_municipio_id? NULL);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>natural_estrangeiro_dt_ingresso</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>date</v>
+      </c>
+      <c r="H18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I18" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_natural_estrangeiro_dt_ingresso, </v>
+      </c>
+      <c r="K18" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['natural_estrangeiro_dt_ingresso'] = '';</v>
+      </c>
+      <c r="L18" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_natural_estrangeiro_dt_ingresso',    'id' =&gt; 'p_natural_estrangeiro_dt_ingresso',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa['natural_estrangeiro_dt_ingresso'],    'required' =&gt; false</v>
+      </c>
+      <c r="M18" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$natural_estrangeiro_dt_ingresso    = strip_tags(@$_POST['p_natural_estrangeiro_dt_ingresso']?: '');</v>
+      </c>
+      <c r="N18" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>natural_estrangeiro_dt_ingresso = ?,</v>
+      </c>
+      <c r="O18" s="9" t="str">
+        <f>CONCATENATE(F18,",")</f>
+        <v>natural_estrangeiro_dt_ingresso,</v>
+      </c>
+      <c r="P18" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(14, $natural_estrangeiro_dt_ingresso? NULL);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>natural_estrangeiro_cidade</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(130)</v>
+      </c>
+      <c r="H19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="I19" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_natural_estrangeiro_cidade, </v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['natural_estrangeiro_cidade'] = '';</v>
+      </c>
+      <c r="L19" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_natural_estrangeiro_cidade',    'id' =&gt; 'p_natural_estrangeiro_cidade',    'maxlength' =&gt; 130,    'value' =&gt; $rsPessoa['natural_estrangeiro_cidade'],    'required' =&gt; false</v>
+      </c>
+      <c r="M19" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$natural_estrangeiro_cidade    = ucwords(strtolower(strip_tags(@$_POST['p_natural_estrangeiro_cidade']?: '')));</v>
+      </c>
+      <c r="N19" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>natural_estrangeiro_cidade = ?,</v>
+      </c>
+      <c r="O19" s="9" t="str">
+        <f>CONCATENATE(F19,",")</f>
+        <v>natural_estrangeiro_cidade,</v>
+      </c>
+      <c r="P19" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(15, $natural_estrangeiro_cidade);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>natural_estrangeiro_estado</v>
+      </c>
+      <c r="G20" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(100)</v>
+      </c>
+      <c r="H20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I20" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_natural_estrangeiro_estado, </v>
+      </c>
+      <c r="K20" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['natural_estrangeiro_estado'] = '';</v>
+      </c>
+      <c r="L20" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_natural_estrangeiro_estado',    'id' =&gt; 'p_natural_estrangeiro_estado',    'maxlength' =&gt; 100,    'value' =&gt; $rsPessoa['natural_estrangeiro_estado'],    'required' =&gt; false</v>
+      </c>
+      <c r="M20" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$natural_estrangeiro_estado    = ucwords(strtolower(strip_tags(@$_POST['p_natural_estrangeiro_estado']?: '')));</v>
+      </c>
+      <c r="N20" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>natural_estrangeiro_estado = ?,</v>
+      </c>
+      <c r="O20" s="9" t="str">
+        <f>CONCATENATE(F20,",")</f>
+        <v>natural_estrangeiro_estado,</v>
+      </c>
+      <c r="P20" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(16, $natural_estrangeiro_estado);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>natural_estrangeiro_condicao_trabalho</v>
+      </c>
+      <c r="G21" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(254)</v>
+      </c>
+      <c r="H21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="I21" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J21" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_natural_estrangeiro_condicao_trabalho, </v>
+      </c>
+      <c r="K21" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['natural_estrangeiro_condicao_trabalho'] = '';</v>
+      </c>
+      <c r="L21" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_natural_estrangeiro_condicao_trabalho',    'id' =&gt; 'p_natural_estrangeiro_condicao_trabalho',    'maxlength' =&gt; 254,    'value' =&gt; $rsPessoa['natural_estrangeiro_condicao_trabalho'],    'required' =&gt; false</v>
+      </c>
+      <c r="M21" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$natural_estrangeiro_condicao_trabalho    = ucwords(strtolower(strip_tags(@$_POST['p_natural_estrangeiro_condicao_trabalho']?: '')));</v>
+      </c>
+      <c r="N21" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>natural_estrangeiro_condicao_trabalho = ?,</v>
+      </c>
+      <c r="O21" s="9" t="str">
+        <f>CONCATENATE(F21,",")</f>
+        <v>natural_estrangeiro_condicao_trabalho,</v>
+      </c>
+      <c r="P21" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(17, $natural_estrangeiro_condicao_trabalho);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>pai_nome</v>
+      </c>
+      <c r="G22" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(254)</v>
+      </c>
+      <c r="H22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="I22" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_pai_nome, </v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['pai_nome'] = '';</v>
+      </c>
+      <c r="L22" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_pai_nome',    'id' =&gt; 'p_pai_nome',    'maxlength' =&gt; 254,    'value' =&gt; $rsPessoa['pai_nome'],    'required' =&gt; false</v>
+      </c>
+      <c r="M22" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$pai_nome    = ucwords(strtolower(strip_tags(@$_POST['p_pai_nome']?: '')));</v>
+      </c>
+      <c r="N22" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>pai_nome = ?,</v>
+      </c>
+      <c r="O22" s="9" t="str">
+        <f>CONCATENATE(F22,",")</f>
+        <v>pai_nome,</v>
+      </c>
+      <c r="P22" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(18, $pai_nome);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>pai_natural_bsc_pais_id</v>
+      </c>
+      <c r="G23" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>int(11)</v>
+      </c>
+      <c r="H23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I23" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J23" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_pai_natural_bsc_pais_id, </v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['pai_natural_bsc_pais_id'] = '';</v>
+      </c>
+      <c r="L23" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_pai_natural_bsc_pais_id',    'id' =&gt; 'p_pai_natural_bsc_pais_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsPessoa['pai_natural_bsc_pais_id'],    'required' =&gt; false</v>
+      </c>
+      <c r="M23" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$pai_natural_bsc_pais_id    = strip_tags(@$_POST['p_pai_natural_bsc_pais_id']?: '');</v>
+      </c>
+      <c r="N23" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>pai_natural_bsc_pais_id = ?,</v>
+      </c>
+      <c r="O23" s="9" t="str">
+        <f>CONCATENATE(F23,",")</f>
+        <v>pai_natural_bsc_pais_id,</v>
+      </c>
+      <c r="P23" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(19, $pai_natural_bsc_pais_id? NULL);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>pai_profissao</v>
+      </c>
+      <c r="G24" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(100)</v>
+      </c>
+      <c r="H24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I24" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_pai_profissao, </v>
+      </c>
+      <c r="K24" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['pai_profissao'] = '';</v>
+      </c>
+      <c r="L24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_pai_profissao',    'id' =&gt; 'p_pai_profissao',    'maxlength' =&gt; 100,    'value' =&gt; $rsPessoa['pai_profissao'],    'required' =&gt; false</v>
+      </c>
+      <c r="M24" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$pai_profissao    = ucwords(strtolower(strip_tags(@$_POST['p_pai_profissao']?: '')));</v>
+      </c>
+      <c r="N24" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>pai_profissao = ?,</v>
+      </c>
+      <c r="O24" s="9" t="str">
+        <f>CONCATENATE(F24,",")</f>
+        <v>pai_profissao,</v>
+      </c>
+      <c r="P24" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(20, $pai_profissao);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>mae_nome</v>
+      </c>
+      <c r="G25" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(254)</v>
+      </c>
+      <c r="H25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="I25" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_mae_nome, </v>
+      </c>
+      <c r="K25" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['mae_nome'] = '';</v>
+      </c>
+      <c r="L25" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_mae_nome',    'id' =&gt; 'p_mae_nome',    'maxlength' =&gt; 254,    'value' =&gt; $rsPessoa['mae_nome'],    'required' =&gt; false</v>
+      </c>
+      <c r="M25" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$mae_nome    = ucwords(strtolower(strip_tags(@$_POST['p_mae_nome']?: '')));</v>
+      </c>
+      <c r="N25" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>mae_nome = ?,</v>
+      </c>
+      <c r="O25" s="9" t="str">
+        <f>CONCATENATE(F25,",")</f>
+        <v>mae_nome,</v>
+      </c>
+      <c r="P25" s="10" t="str">
+        <f>CONCATENATE("$stmt-&gt;bindValue(",A25,", $",F25,IF(OR(IFERROR(FIND("dt_",F25),0)&gt;0,IFERROR(FIND("_id",F25),0)&gt;0),"? NULL);",");"))</f>
+        <v>$stmt-&gt;bindValue(21, $mae_nome);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>22</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>mae_natural_bsc_pais_id</v>
+      </c>
+      <c r="G26" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>int(11)</v>
+      </c>
+      <c r="H26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I26" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J26" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_mae_natural_bsc_pais_id, </v>
+      </c>
+      <c r="K26" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['mae_natural_bsc_pais_id'] = '';</v>
+      </c>
+      <c r="L26" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_mae_natural_bsc_pais_id',    'id' =&gt; 'p_mae_natural_bsc_pais_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsPessoa['mae_natural_bsc_pais_id'],    'required' =&gt; false</v>
+      </c>
+      <c r="M26" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$mae_natural_bsc_pais_id    = strip_tags(@$_POST['p_mae_natural_bsc_pais_id']?: '');</v>
+      </c>
+      <c r="N26" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>mae_natural_bsc_pais_id = ?,</v>
+      </c>
+      <c r="O26" s="9" t="str">
+        <f>CONCATENATE(F26,",")</f>
+        <v>mae_natural_bsc_pais_id,</v>
+      </c>
+      <c r="P26" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(22, $mae_natural_bsc_pais_id? NULL);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>mae_profissao</v>
+      </c>
+      <c r="G27" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(45)</v>
+      </c>
+      <c r="H27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I27" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J27" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_mae_profissao, </v>
+      </c>
+      <c r="K27" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['mae_profissao'] = '';</v>
+      </c>
+      <c r="L27" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_mae_profissao',    'id' =&gt; 'p_mae_profissao',    'maxlength' =&gt; 45,    'value' =&gt; $rsPessoa['mae_profissao'],    'required' =&gt; false</v>
+      </c>
+      <c r="M27" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$mae_profissao    = ucwords(strtolower(strip_tags(@$_POST['p_mae_profissao']?: '')));</v>
+      </c>
+      <c r="N27" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>mae_profissao = ?,</v>
+      </c>
+      <c r="O27" s="9" t="str">
+        <f>CONCATENATE(F27,",")</f>
+        <v>mae_profissao,</v>
+      </c>
+      <c r="P27" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(23, $mae_profissao);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>foto</v>
+      </c>
+      <c r="G28" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(254)</v>
+      </c>
+      <c r="H28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="I28" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J28" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_foto, </v>
+      </c>
+      <c r="K28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['foto'] = '';</v>
+      </c>
+      <c r="L28" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_foto',    'id' =&gt; 'p_foto',    'maxlength' =&gt; 254,    'value' =&gt; $rsPessoa['foto'],    'required' =&gt; false</v>
+      </c>
+      <c r="M28" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$foto    = ucwords(strtolower(strip_tags(@$_POST['p_foto']?: '')));</v>
+      </c>
+      <c r="N28" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>foto = ?,</v>
+      </c>
+      <c r="O28" s="9" t="str">
+        <f>CONCATENATE(F28,",")</f>
+        <v>foto,</v>
+      </c>
+      <c r="P28" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(24, $foto);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>sangue_tipo</v>
+      </c>
+      <c r="G29" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(3)</v>
+      </c>
+      <c r="H29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I29" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J29" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_sangue_tipo, </v>
+      </c>
+      <c r="K29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['sangue_tipo'] = '';</v>
+      </c>
+      <c r="L29" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_sangue_tipo',    'id' =&gt; 'p_sangue_tipo',    'maxlength' =&gt; 3,    'value' =&gt; $rsPessoa['sangue_tipo'],    'required' =&gt; false</v>
+      </c>
+      <c r="M29" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$sangue_tipo    = ucwords(strtolower(strip_tags(@$_POST['p_sangue_tipo']?: '')));</v>
+      </c>
+      <c r="N29" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>sangue_tipo = ?,</v>
+      </c>
+      <c r="O29" s="9" t="str">
+        <f>CONCATENATE(F29,",")</f>
+        <v>sangue_tipo,</v>
+      </c>
+      <c r="P29" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(25, $sangue_tipo);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>raca</v>
+      </c>
+      <c r="G30" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(50)</v>
+      </c>
+      <c r="H30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I30" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_raca, </v>
+      </c>
+      <c r="K30" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['raca'] = '';</v>
+      </c>
+      <c r="L30" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_raca',    'id' =&gt; 'p_raca',    'maxlength' =&gt; 50,    'value' =&gt; $rsPessoa['raca'],    'required' =&gt; false</v>
+      </c>
+      <c r="M30" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$raca    = ucwords(strtolower(strip_tags(@$_POST['p_raca']?: '')));</v>
+      </c>
+      <c r="N30" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>raca = ?,</v>
+      </c>
+      <c r="O30" s="9" t="str">
+        <f>CONCATENATE(F30,",")</f>
+        <v>raca,</v>
+      </c>
+      <c r="P30" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(26, $raca);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>enfermedade_portador</v>
+      </c>
+      <c r="G31" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(100)</v>
+      </c>
+      <c r="H31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I31" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_enfermedade_portador, </v>
+      </c>
+      <c r="K31" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['enfermedade_portador'] = '';</v>
+      </c>
+      <c r="L31" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_enfermedade_portador',    'id' =&gt; 'p_enfermedade_portador',    'maxlength' =&gt; 100,    'value' =&gt; $rsPessoa['enfermedade_portador'],    'required' =&gt; false</v>
+      </c>
+      <c r="M31" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$enfermedade_portador    = ucwords(strtolower(strip_tags(@$_POST['p_enfermedade_portador']?: '')));</v>
+      </c>
+      <c r="N31" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>enfermedade_portador = ?,</v>
+      </c>
+      <c r="O31" s="9" t="str">
+        <f>CONCATENATE(F31,",")</f>
+        <v>enfermedade_portador,</v>
+      </c>
+      <c r="P31" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(27, $enfermedade_portador);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>enfermedade_codigo_internacional</v>
+      </c>
+      <c r="G32" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>varchar(10)</v>
+      </c>
+      <c r="H32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J32" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">p_enfermedade_codigo_internacional, </v>
+      </c>
+      <c r="K32" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa['enfermedade_codigo_internacional'] = '';</v>
+      </c>
+      <c r="L32" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; 'p_enfermedade_codigo_internacional',    'id' =&gt; 'p_enfermedade_codigo_internacional',    'maxlength' =&gt; 10,    'value' =&gt; $rsPessoa['enfermedade_codigo_internacional'],    'required' =&gt; false</v>
+      </c>
+      <c r="M32" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$enfermedade_codigo_internacional    = ucwords(strtolower(strip_tags(@$_POST['p_enfermedade_codigo_internacional']?: '')));</v>
+      </c>
+      <c r="N32" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>enfermedade_codigo_internacional = ?,</v>
+      </c>
+      <c r="O32" s="9" t="str">
+        <f>CONCATENATE(F32,",")</f>
+        <v>enfermedade_codigo_internacional,</v>
+      </c>
+      <c r="P32" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(28, $enfermedade_codigo_internacional);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="9" t="str">
+        <f>IFERROR(MID(C33,(FIND("`",C33)+1),(FIND("` ",C33)-(FIND("`",C33)+1))),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="9" t="str">
+        <f>IFERROR(MID(C33,(FIND("` ",C33)+2),(IFERROR(FIND("NOT",C33),FIND("DEFAULT",C33))-(FIND("` ",C33)+3))),"")</f>
+        <v/>
+      </c>
+      <c r="H33" s="9" t="str">
+        <f t="shared" ref="H33" si="10">IFERROR(MID(C33,(FIND("(",C33)+1),(FIND(")",C33)-(FIND("(",C33)+1))),"")</f>
+        <v/>
+      </c>
+      <c r="I33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J33" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L33" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M33" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N33" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O33" s="9" t="str">
+        <f>CONCATENATE(F33,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P33" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(29, $);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="9" t="str">
+        <f t="shared" ref="F34:F97" si="11">IFERROR(MID(C34,(FIND("`",C34)+1),(FIND("` ",C34)-(FIND("`",C34)+1))),"")</f>
+        <v/>
+      </c>
+      <c r="G34" s="9" t="str">
+        <f t="shared" ref="G34:G97" si="12">IFERROR(MID(C34,(FIND("` ",C34)+2),(IFERROR(FIND("NOT",C34),FIND("DEFAULT",C34))-(FIND("` ",C34)+3))),"")</f>
+        <v/>
+      </c>
+      <c r="H34" s="9" t="str">
+        <f t="shared" ref="H34:H97" si="13">IFERROR(MID(C34,(FIND("(",C34)+1),(FIND(")",C34)-(FIND("(",C34)+1))),"")</f>
+        <v/>
+      </c>
+      <c r="I34" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K34" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L34" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M34" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N34" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O34" s="9" t="str">
+        <f>CONCATENATE(F34,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P34" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(30, $);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G35" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H35" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I35" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K35" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L35" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M35" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N35" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O35" s="9" t="str">
+        <f>CONCATENATE(F35,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P35" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(31, $);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>32</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G36" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H36" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I36" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K36" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L36" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M36" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N36" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O36" s="9" t="str">
+        <f>CONCATENATE(F36,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P36" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(32, $);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G37" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H37" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I37" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J37" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K37" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L37" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M37" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N37" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O37" s="9" t="str">
+        <f>CONCATENATE(F37,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P37" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(33, $);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G38" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H38" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I38" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J38" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K38" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L38" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M38" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N38" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O38" s="9" t="str">
+        <f>CONCATENATE(F38,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P38" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(34, $);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G39" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H39" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I39" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J39" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K39" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L39" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M39" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N39" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O39" s="9" t="str">
+        <f>CONCATENATE(F39,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P39" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(35, $);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G40" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H40" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I40" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J40" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K40" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L40" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M40" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N40" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O40" s="9" t="str">
+        <f>CONCATENATE(F40,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P40" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(36, $);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G41" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H41" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I41" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J41" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K41" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L41" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M41" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N41" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O41" s="9" t="str">
+        <f>CONCATENATE(F41,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P41" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(37, $);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G42" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H42" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I42" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J42" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K42" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L42" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M42" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N42" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O42" s="9" t="str">
+        <f>CONCATENATE(F42,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P42" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(38, $);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G43" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H43" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I43" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J43" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K43" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L43" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M43" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N43" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O43" s="9" t="str">
+        <f>CONCATENATE(F43,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P43" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(39, $);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G44" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H44" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I44" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J44" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K44" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L44" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M44" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N44" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O44" s="9" t="str">
+        <f>CONCATENATE(F44,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P44" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(40, $);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>41</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G45" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H45" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I45" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J45" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K45" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L45" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M45" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N45" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O45" s="9" t="str">
+        <f>CONCATENATE(F45,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P45" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(41, $);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>42</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G46" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H46" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I46" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J46" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K46" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L46" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M46" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N46" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O46" s="9" t="str">
+        <f>CONCATENATE(F46,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P46" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(42, $);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>43</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G47" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H47" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I47" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J47" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K47" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L47" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M47" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N47" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O47" s="9" t="str">
+        <f>CONCATENATE(F47,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P47" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(43, $);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>44</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G48" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H48" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I48" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J48" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K48" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L48" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M48" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N48" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O48" s="9" t="str">
+        <f>CONCATENATE(F48,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P48" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(44, $);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>45</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G49" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H49" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I49" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J49" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K49" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L49" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M49" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N49" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O49" s="9" t="str">
+        <f>CONCATENATE(F49,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P49" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(45, $);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>46</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G50" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H50" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I50" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J50" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K50" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L50" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M50" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N50" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O50" s="9" t="str">
+        <f>CONCATENATE(F50,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P50" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(46, $);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>47</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G51" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H51" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I51" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J51" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K51" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L51" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M51" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N51" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O51" s="9" t="str">
+        <f>CONCATENATE(F51,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P51" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(47, $);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>48</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G52" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H52" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I52" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J52" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K52" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L52" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M52" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N52" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O52" s="9" t="str">
+        <f>CONCATENATE(F52,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P52" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(48, $);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>49</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G53" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H53" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I53" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J53" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K53" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L53" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M53" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N53" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O53" s="9" t="str">
+        <f>CONCATENATE(F53,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P53" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(49, $);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>50</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G54" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H54" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I54" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J54" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K54" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L54" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M54" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N54" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O54" s="9" t="str">
+        <f>CONCATENATE(F54,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P54" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(50, $);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>51</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G55" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H55" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I55" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J55" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K55" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L55" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M55" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N55" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O55" s="9" t="str">
+        <f>CONCATENATE(F55,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P55" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(51, $);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>52</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G56" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H56" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I56" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J56" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K56" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L56" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M56" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N56" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O56" s="9" t="str">
+        <f>CONCATENATE(F56,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P56" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(52, $);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>53</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G57" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H57" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I57" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J57" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K57" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L57" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M57" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N57" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O57" s="9" t="str">
+        <f>CONCATENATE(F57,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P57" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(53, $);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>54</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G58" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H58" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I58" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J58" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K58" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L58" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M58" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N58" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O58" s="9" t="str">
+        <f>CONCATENATE(F58,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P58" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(54, $);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>55</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G59" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H59" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I59" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J59" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K59" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L59" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M59" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N59" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O59" s="9" t="str">
+        <f>CONCATENATE(F59,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P59" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(55, $);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>56</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G60" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H60" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I60" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J60" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K60" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L60" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M60" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N60" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O60" s="9" t="str">
+        <f>CONCATENATE(F60,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P60" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(56, $);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>57</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G61" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H61" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I61" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J61" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K61" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L61" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M61" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N61" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O61" s="9" t="str">
+        <f>CONCATENATE(F61,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P61" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(57, $);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>58</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G62" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H62" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I62" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J62" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K62" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L62" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M62" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N62" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O62" s="9" t="str">
+        <f>CONCATENATE(F62,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P62" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(58, $);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>59</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G63" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H63" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I63" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J63" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K63" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L63" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M63" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N63" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O63" s="9" t="str">
+        <f>CONCATENATE(F63,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P63" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(59, $);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>60</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G64" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H64" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I64" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J64" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K64" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L64" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M64" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N64" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O64" s="9" t="str">
+        <f>CONCATENATE(F64,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P64" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(60, $);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>61</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G65" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H65" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I65" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J65" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K65" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L65" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M65" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N65" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O65" s="9" t="str">
+        <f>CONCATENATE(F65,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P65" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(61, $);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>62</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G66" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H66" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I66" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J66" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K66" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L66" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M66" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N66" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O66" s="9" t="str">
+        <f>CONCATENATE(F66,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P66" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(62, $);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>63</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G67" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H67" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I67" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J67" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K67" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L67" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M67" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N67" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O67" s="9" t="str">
+        <f>CONCATENATE(F67,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P67" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(63, $);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>64</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G68" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H68" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I68" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J68" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K68" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L68" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M68" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N68" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O68" s="9" t="str">
+        <f>CONCATENATE(F68,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P68" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(64, $);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>65</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G69" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H69" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I69" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J69" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K69" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L69" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M69" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N69" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O69" s="9" t="str">
+        <f>CONCATENATE(F69,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P69" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>$stmt-&gt;bindValue(65, $);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>66</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G70" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H70" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I70" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>false</v>
+      </c>
+      <c r="J70" s="9" t="str">
+        <f t="shared" ref="J70:J104" si="14">CONCATENATE(B70,F70,", ")</f>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K70" s="9" t="str">
+        <f t="shared" ref="K70:K104" si="15">CONCATENATE(K$4,"['",F70,"'] = '';")</f>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L70" s="9" t="str">
+        <f t="shared" ref="L70:L104" si="16">CONCATENATE("'name' =&gt; '",B70,F70,"',    ","'id' =&gt; '",B70,F70,"',    ","'maxlength' =&gt; ",H70,",    ","'value' =&gt; ",K$4,"['",F70,"'],    ","'required' =&gt; ",I70)</f>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M70" s="13" t="str">
+        <f t="shared" ref="M70:M104" si="17">CONCATENATE("$",F70,"    = ",IF(OR(IFERROR(FIND("dt_",F70),0)&gt;0,IFERROR(FIND("_id",F70),0)&gt;0,F70="status"),"","ucwords(strtolower("),"strip_tags(@$_POST['",B70,F70,"']?: ",IF(F70="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F70),0)&gt;0,IFERROR(FIND("_id",F70),0)&gt;0,F70="status"),";","));"))</f>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N70" s="9" t="str">
+        <f t="shared" ref="N70:N104" si="18">CONCATENATE(F70," = ?,")</f>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O70" s="9" t="str">
+        <f>CONCATENATE(F70,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P70" s="10" t="str">
+        <f t="shared" ref="P70:P104" si="19">CONCATENATE("$stmt-&gt;bindValue(",A70,", $",F70,IF(OR(IFERROR(FIND("dt_",F70),0)&gt;0,IFERROR(FIND("_id",F70),0)&gt;0),"? NULL);",");"))</f>
+        <v>$stmt-&gt;bindValue(66, $);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
+        <v>67</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G71" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H71" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I71" s="9" t="str">
+        <f t="shared" ref="I71:I104" si="20">IF((IFERROR(FIND("NOT NULL",C71),0))&gt;0,"true","false")</f>
+        <v>false</v>
+      </c>
+      <c r="J71" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K71" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L71" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M71" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N71" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O71" s="9" t="str">
+        <f>CONCATENATE(F71,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P71" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(67, $);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
+        <v>68</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G72" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H72" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I72" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J72" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K72" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L72" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M72" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N72" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O72" s="9" t="str">
+        <f>CONCATENATE(F72,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P72" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(68, $);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
+        <v>69</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G73" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H73" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I73" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J73" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K73" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L73" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M73" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N73" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O73" s="9" t="str">
+        <f>CONCATENATE(F73,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P73" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(69, $);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
+        <v>70</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G74" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H74" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I74" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J74" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K74" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L74" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M74" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N74" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O74" s="9" t="str">
+        <f>CONCATENATE(F74,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P74" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(70, $);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>71</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G75" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H75" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I75" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J75" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K75" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L75" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M75" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N75" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O75" s="9" t="str">
+        <f>CONCATENATE(F75,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P75" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(71, $);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
+        <v>72</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G76" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H76" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I76" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J76" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K76" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L76" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M76" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N76" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O76" s="9" t="str">
+        <f>CONCATENATE(F76,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P76" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(72, $);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
+        <v>73</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G77" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H77" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I77" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J77" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K77" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L77" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M77" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N77" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O77" s="9" t="str">
+        <f>CONCATENATE(F77,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P77" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(73, $);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
+        <v>74</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G78" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H78" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I78" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J78" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K78" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L78" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M78" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N78" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O78" s="9" t="str">
+        <f>CONCATENATE(F78,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P78" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(74, $);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>75</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G79" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H79" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I79" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J79" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K79" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L79" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M79" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N79" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O79" s="9" t="str">
+        <f>CONCATENATE(F79,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P79" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(75, $);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
+        <v>76</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G80" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H80" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I80" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J80" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K80" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L80" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M80" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N80" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O80" s="9" t="str">
+        <f>CONCATENATE(F80,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P80" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(76, $);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
+        <v>77</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G81" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H81" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I81" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J81" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K81" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L81" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M81" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N81" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O81" s="9" t="str">
+        <f>CONCATENATE(F81,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P81" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(77, $);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
+        <v>78</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G82" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H82" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I82" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J82" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K82" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L82" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M82" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N82" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O82" s="9" t="str">
+        <f>CONCATENATE(F82,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P82" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(78, $);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="9">
+        <v>79</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G83" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H83" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I83" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J83" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K83" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L83" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M83" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N83" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O83" s="9" t="str">
+        <f>CONCATENATE(F83,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P83" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(79, $);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="9">
+        <v>80</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G84" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H84" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I84" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J84" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K84" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L84" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M84" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N84" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O84" s="9" t="str">
+        <f>CONCATENATE(F84,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P84" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(80, $);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="9">
+        <v>81</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G85" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H85" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I85" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J85" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K85" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L85" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M85" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N85" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O85" s="9" t="str">
+        <f>CONCATENATE(F85,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P85" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(81, $);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
+        <v>82</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G86" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H86" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I86" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J86" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K86" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L86" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M86" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N86" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O86" s="9" t="str">
+        <f>CONCATENATE(F86,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P86" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(82, $);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" s="9">
+        <v>83</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G87" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H87" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I87" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J87" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K87" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L87" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M87" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N87" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O87" s="9" t="str">
+        <f>CONCATENATE(F87,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P87" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(83, $);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" s="9">
+        <v>84</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G88" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H88" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I88" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J88" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K88" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L88" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M88" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N88" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O88" s="9" t="str">
+        <f>CONCATENATE(F88,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P88" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(84, $);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="9">
+        <v>85</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G89" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H89" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I89" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J89" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K89" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L89" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M89" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N89" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O89" s="9" t="str">
+        <f>CONCATENATE(F89,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P89" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(85, $);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
+        <v>86</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G90" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H90" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I90" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J90" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K90" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L90" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M90" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N90" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O90" s="9" t="str">
+        <f>CONCATENATE(F90,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P90" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(86, $);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="9">
+        <v>87</v>
+      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G91" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H91" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I91" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J91" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K91" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L91" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M91" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N91" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O91" s="9" t="str">
+        <f>CONCATENATE(F91,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P91" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(87, $);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
+        <v>88</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G92" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H92" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I92" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J92" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K92" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L92" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M92" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N92" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O92" s="9" t="str">
+        <f>CONCATENATE(F92,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P92" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(88, $);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="9">
+        <v>89</v>
+      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G93" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H93" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I93" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J93" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K93" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L93" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M93" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N93" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O93" s="9" t="str">
+        <f>CONCATENATE(F93,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P93" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(89, $);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
+        <v>90</v>
+      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G94" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H94" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I94" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J94" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K94" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L94" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M94" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N94" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O94" s="9" t="str">
+        <f>CONCATENATE(F94,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P94" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(90, $);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
+        <v>91</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G95" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H95" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I95" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J95" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K95" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L95" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M95" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N95" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O95" s="9" t="str">
+        <f>CONCATENATE(F95,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P95" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(91, $);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="9">
+        <v>92</v>
+      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G96" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H96" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I96" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J96" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K96" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L96" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M96" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N96" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O96" s="9" t="str">
+        <f>CONCATENATE(F96,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P96" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(92, $);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
+        <v>93</v>
+      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G97" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H97" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I97" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J97" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K97" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L97" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M97" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N97" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O97" s="9" t="str">
+        <f>CONCATENATE(F97,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P97" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(93, $);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="9">
+        <v>94</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="9" t="str">
+        <f t="shared" ref="F98:F104" si="21">IFERROR(MID(C98,(FIND("`",C98)+1),(FIND("` ",C98)-(FIND("`",C98)+1))),"")</f>
+        <v/>
+      </c>
+      <c r="G98" s="9" t="str">
+        <f t="shared" ref="G98:G104" si="22">IFERROR(MID(C98,(FIND("` ",C98)+2),(IFERROR(FIND("NOT",C98),FIND("DEFAULT",C98))-(FIND("` ",C98)+3))),"")</f>
+        <v/>
+      </c>
+      <c r="H98" s="9" t="str">
+        <f t="shared" ref="H98:H104" si="23">IFERROR(MID(C98,(FIND("(",C98)+1),(FIND(")",C98)-(FIND("(",C98)+1))),"")</f>
+        <v/>
+      </c>
+      <c r="I98" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J98" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K98" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L98" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M98" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N98" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O98" s="9" t="str">
+        <f>CONCATENATE(F98,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P98" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(94, $);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="9">
+        <v>95</v>
+      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G99" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H99" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I99" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J99" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K99" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L99" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M99" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N99" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O99" s="9" t="str">
+        <f>CONCATENATE(F99,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P99" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(95, $);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="9">
+        <v>96</v>
+      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G100" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H100" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I100" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J100" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K100" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L100" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M100" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N100" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O100" s="9" t="str">
+        <f>CONCATENATE(F100,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P100" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(96, $);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="9">
+        <v>97</v>
+      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G101" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H101" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I101" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J101" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K101" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L101" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M101" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N101" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O101" s="9" t="str">
+        <f>CONCATENATE(F101,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P101" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(97, $);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
+        <v>98</v>
+      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G102" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H102" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I102" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J102" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K102" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L102" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M102" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N102" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O102" s="9" t="str">
+        <f>CONCATENATE(F102,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P102" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(98, $);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="9">
+        <v>99</v>
+      </c>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G103" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H103" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I103" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J103" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K103" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L103" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M103" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N103" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O103" s="9" t="str">
+        <f>CONCATENATE(F103,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P103" s="10" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(99, $);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>100</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G104" s="11" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H104" s="11" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I104" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v>false</v>
+      </c>
+      <c r="J104" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">, </v>
+      </c>
+      <c r="K104" s="11" t="str">
+        <f t="shared" si="15"/>
+        <v>$rsPessoa[''] = '';</v>
+      </c>
+      <c r="L104" s="11" t="str">
+        <f t="shared" si="16"/>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
+      </c>
+      <c r="M104" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+      </c>
+      <c r="N104" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> = ?,</v>
+      </c>
+      <c r="O104" s="11" t="str">
+        <f>CONCATENATE(F104,",")</f>
+        <v>,</v>
+      </c>
+      <c r="P104" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v>$stmt-&gt;bindValue(100, $);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3788E-DBD0-304E-86FA-464A32DFEA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F27718E-88CA-F34A-84CB-54FBEDDE0AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="57600" windowHeight="35500" activeTab="1" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
@@ -5350,8 +5350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488E7A0-5FC7-8C46-9378-12741E521CD7}">
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5493,8 +5493,8 @@
         <v>'name' =&gt; 'p_id',    'id' =&gt; 'p_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsPessoa['id'],    'required' =&gt; true</v>
       </c>
       <c r="M5" s="13" t="str">
-        <f>CONCATENATE("$",F5,"    = ",IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),"","ucwords(strtolower("),"strip_tags(@$_POST['",B5,F5,"']?: ",IF(F5="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),";","));"))</f>
-        <v>$id    = ucwords(strtolower(strip_tags(@$_POST['p_id']?: '')));</v>
+        <f>CONCATENATE("$",F5,"    = ",IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B5,F5,"']?: ",IF(F5="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),";","));"))</f>
+        <v>$id    = ucwords(strtolower(trim(strip_tags(@$_POST['p_id']?: '')));</v>
       </c>
       <c r="N5" s="13" t="str">
         <f>CONCATENATE(F5," = ?,")</f>
@@ -5505,7 +5505,7 @@
         <v>id,</v>
       </c>
       <c r="P5" s="14" t="str">
-        <f>CONCATENATE("$stmt-&gt;bindValue(",A5,", $",F5,IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0),"? NULL);",");"))</f>
+        <f>CONCATENATE("$stmt-&gt;bindValue(",A5,", $",F5,IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0),"?: NULL);",");"))</f>
         <v>$stmt-&gt;bindValue(1, $id);</v>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
         <v>status,</v>
       </c>
       <c r="P6" s="10" t="str">
-        <f t="shared" ref="P6:P69" si="8">CONCATENATE("$stmt-&gt;bindValue(",A6,", $",F6,IF(OR(IFERROR(FIND("dt_",F6),0)&gt;0,IFERROR(FIND("_id",F6),0)&gt;0),"? NULL);",");"))</f>
+        <f t="shared" ref="P6:P69" si="8">CONCATENATE("$stmt-&gt;bindValue(",A6,", $",F6,IF(OR(IFERROR(FIND("dt_",F6),0)&gt;0,IFERROR(FIND("_id",F6),0)&gt;0),"?: NULL);",");"))</f>
         <v>$stmt-&gt;bindValue(2, $status);</v>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="P7" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>$stmt-&gt;bindValue(3, $dt_cadastro? NULL);</v>
+        <v>$stmt-&gt;bindValue(3, $dt_cadastro?: NULL);</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="P13" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>$stmt-&gt;bindValue(9, $dt_nascimento? NULL);</v>
+        <v>$stmt-&gt;bindValue(9, $dt_nascimento?: NULL);</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="P14" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>$stmt-&gt;bindValue(10, $dt_criacao? NULL);</v>
+        <v>$stmt-&gt;bindValue(10, $dt_criacao?: NULL);</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="P16" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>$stmt-&gt;bindValue(12, $natural_bsc_pais_id? NULL);</v>
+        <v>$stmt-&gt;bindValue(12, $natural_bsc_pais_id?: NULL);</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="P17" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>$stmt-&gt;bindValue(13, $natural_bsc_municipio_id? NULL);</v>
+        <v>$stmt-&gt;bindValue(13, $natural_bsc_municipio_id?: NULL);</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="P18" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>$stmt-&gt;bindValue(14, $natural_estrangeiro_dt_ingresso? NULL);</v>
+        <v>$stmt-&gt;bindValue(14, $natural_estrangeiro_dt_ingresso?: NULL);</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="P23" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>$stmt-&gt;bindValue(19, $pai_natural_bsc_pais_id? NULL);</v>
+        <v>$stmt-&gt;bindValue(19, $pai_natural_bsc_pais_id?: NULL);</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -6645,7 +6645,7 @@
         <v>mae_nome,</v>
       </c>
       <c r="P25" s="10" t="str">
-        <f>CONCATENATE("$stmt-&gt;bindValue(",A25,", $",F25,IF(OR(IFERROR(FIND("dt_",F25),0)&gt;0,IFERROR(FIND("_id",F25),0)&gt;0),"? NULL);",");"))</f>
+        <f t="shared" si="8"/>
         <v>$stmt-&gt;bindValue(21, $mae_nome);</v>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="P26" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>$stmt-&gt;bindValue(22, $mae_natural_bsc_pais_id? NULL);</v>
+        <v>$stmt-&gt;bindValue(22, $mae_natural_bsc_pais_id?: NULL);</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -9058,7 +9058,7 @@
         <v>,</v>
       </c>
       <c r="P70" s="10" t="str">
-        <f t="shared" ref="P70:P104" si="19">CONCATENATE("$stmt-&gt;bindValue(",A70,", $",F70,IF(OR(IFERROR(FIND("dt_",F70),0)&gt;0,IFERROR(FIND("_id",F70),0)&gt;0),"? NULL);",");"))</f>
+        <f t="shared" ref="P70:P104" si="19">CONCATENATE("$stmt-&gt;bindValue(",A70,", $",F70,IF(OR(IFERROR(FIND("dt_",F70),0)&gt;0,IFERROR(FIND("_id",F70),0)&gt;0),"?: NULL);",");"))</f>
         <v>$stmt-&gt;bindValue(66, $);</v>
       </c>
     </row>

--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F27718E-88CA-F34A-84CB-54FBEDDE0AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A1757D-3911-144A-9593-A64F098D3827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="57600" windowHeight="35500" activeTab="1" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
@@ -5350,8 +5350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488E7A0-5FC7-8C46-9378-12741E521CD7}">
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5493,8 +5493,8 @@
         <v>'name' =&gt; 'p_id',    'id' =&gt; 'p_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsPessoa['id'],    'required' =&gt; true</v>
       </c>
       <c r="M5" s="13" t="str">
-        <f>CONCATENATE("$",F5,"    = ",IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B5,F5,"']?: ",IF(F5="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),";","));"))</f>
-        <v>$id    = ucwords(strtolower(trim(strip_tags(@$_POST['p_id']?: '')));</v>
+        <f>CONCATENATE("$",F5,"    = ",IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B5,F5,"']?: ",IF(F5="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F5),0)&gt;0,IFERROR(FIND("_id",F5),0)&gt;0,F5="status"),";",")));"))</f>
+        <v>$id    = ucwords(strtolower(trim(strip_tags(@$_POST['p_id']?: ''))));</v>
       </c>
       <c r="N5" s="13" t="str">
         <f>CONCATENATE(F5," = ?,")</f>
@@ -5550,7 +5550,7 @@
         <v>'name' =&gt; 'p_status',    'id' =&gt; 'p_status',    'maxlength' =&gt; 1,    'value' =&gt; $rsPessoa['status'],    'required' =&gt; true</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" ref="M6:M69" si="6">CONCATENATE("$",F6,"    = ",IF(OR(IFERROR(FIND("dt_",F6),0)&gt;0,IFERROR(FIND("_id",F6),0)&gt;0,F6="status"),"","ucwords(strtolower("),"strip_tags(@$_POST['",B6,F6,"']?: ",IF(F6="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F6),0)&gt;0,IFERROR(FIND("_id",F6),0)&gt;0,F6="status"),";","));"))</f>
+        <f t="shared" ref="M6:M69" si="6">CONCATENATE("$",F6,"    = ",IF(OR(IFERROR(FIND("dt_",F6),0)&gt;0,IFERROR(FIND("_id",F6),0)&gt;0,F6="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B6,F6,"']?: ",IF(F6="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F6),0)&gt;0,IFERROR(FIND("_id",F6),0)&gt;0,F6="status"),";",")));"))</f>
         <v>$status    = strip_tags(@$_POST['p_status']?: 0);</v>
       </c>
       <c r="N6" s="9" t="str">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="M8" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$tipo    = ucwords(strtolower(strip_tags(@$_POST['p_tipo']?: '')));</v>
+        <v>$tipo    = ucwords(strtolower(trim(strip_tags(@$_POST['p_tipo']?: ''))));</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="M9" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$nome    = ucwords(strtolower(strip_tags(@$_POST['p_nome']?: '')));</v>
+        <v>$nome    = ucwords(strtolower(trim(strip_tags(@$_POST['p_nome']?: ''))));</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="M10" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$nome_social    = ucwords(strtolower(strip_tags(@$_POST['p_nome_social']?: '')));</v>
+        <v>$nome_social    = ucwords(strtolower(trim(strip_tags(@$_POST['p_nome_social']?: ''))));</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="M11" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$cpf    = ucwords(strtolower(strip_tags(@$_POST['p_cpf']?: '')));</v>
+        <v>$cpf    = ucwords(strtolower(trim(strip_tags(@$_POST['p_cpf']?: ''))));</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="7"/>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="M12" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$ie    = ucwords(strtolower(strip_tags(@$_POST['p_ie']?: '')));</v>
+        <v>$ie    = ucwords(strtolower(trim(strip_tags(@$_POST['p_ie']?: ''))));</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="M15" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$sexo    = ucwords(strtolower(strip_tags(@$_POST['p_sexo']?: '')));</v>
+        <v>$sexo    = ucwords(strtolower(trim(strip_tags(@$_POST['p_sexo']?: ''))));</v>
       </c>
       <c r="N15" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="M19" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$natural_estrangeiro_cidade    = ucwords(strtolower(strip_tags(@$_POST['p_natural_estrangeiro_cidade']?: '')));</v>
+        <v>$natural_estrangeiro_cidade    = ucwords(strtolower(trim(strip_tags(@$_POST['p_natural_estrangeiro_cidade']?: ''))));</v>
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="M20" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$natural_estrangeiro_estado    = ucwords(strtolower(strip_tags(@$_POST['p_natural_estrangeiro_estado']?: '')));</v>
+        <v>$natural_estrangeiro_estado    = ucwords(strtolower(trim(strip_tags(@$_POST['p_natural_estrangeiro_estado']?: ''))));</v>
       </c>
       <c r="N20" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="M21" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$natural_estrangeiro_condicao_trabalho    = ucwords(strtolower(strip_tags(@$_POST['p_natural_estrangeiro_condicao_trabalho']?: '')));</v>
+        <v>$natural_estrangeiro_condicao_trabalho    = ucwords(strtolower(trim(strip_tags(@$_POST['p_natural_estrangeiro_condicao_trabalho']?: ''))));</v>
       </c>
       <c r="N21" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="M22" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$pai_nome    = ucwords(strtolower(strip_tags(@$_POST['p_pai_nome']?: '')));</v>
+        <v>$pai_nome    = ucwords(strtolower(trim(strip_tags(@$_POST['p_pai_nome']?: ''))));</v>
       </c>
       <c r="N22" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="M24" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$pai_profissao    = ucwords(strtolower(strip_tags(@$_POST['p_pai_profissao']?: '')));</v>
+        <v>$pai_profissao    = ucwords(strtolower(trim(strip_tags(@$_POST['p_pai_profissao']?: ''))));</v>
       </c>
       <c r="N24" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="M25" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$mae_nome    = ucwords(strtolower(strip_tags(@$_POST['p_mae_nome']?: '')));</v>
+        <v>$mae_nome    = ucwords(strtolower(trim(strip_tags(@$_POST['p_mae_nome']?: ''))));</v>
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="M27" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$mae_profissao    = ucwords(strtolower(strip_tags(@$_POST['p_mae_profissao']?: '')));</v>
+        <v>$mae_profissao    = ucwords(strtolower(trim(strip_tags(@$_POST['p_mae_profissao']?: ''))));</v>
       </c>
       <c r="N27" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="M28" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$foto    = ucwords(strtolower(strip_tags(@$_POST['p_foto']?: '')));</v>
+        <v>$foto    = ucwords(strtolower(trim(strip_tags(@$_POST['p_foto']?: ''))));</v>
       </c>
       <c r="N28" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="M29" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$sangue_tipo    = ucwords(strtolower(strip_tags(@$_POST['p_sangue_tipo']?: '')));</v>
+        <v>$sangue_tipo    = ucwords(strtolower(trim(strip_tags(@$_POST['p_sangue_tipo']?: ''))));</v>
       </c>
       <c r="N29" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="M30" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$raca    = ucwords(strtolower(strip_tags(@$_POST['p_raca']?: '')));</v>
+        <v>$raca    = ucwords(strtolower(trim(strip_tags(@$_POST['p_raca']?: ''))));</v>
       </c>
       <c r="N30" s="9" t="str">
         <f t="shared" si="7"/>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="M31" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$enfermedade_portador    = ucwords(strtolower(strip_tags(@$_POST['p_enfermedade_portador']?: '')));</v>
+        <v>$enfermedade_portador    = ucwords(strtolower(trim(strip_tags(@$_POST['p_enfermedade_portador']?: ''))));</v>
       </c>
       <c r="N31" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="M32" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$enfermedade_codigo_internacional    = ucwords(strtolower(strip_tags(@$_POST['p_enfermedade_codigo_internacional']?: '')));</v>
+        <v>$enfermedade_codigo_internacional    = ucwords(strtolower(trim(strip_tags(@$_POST['p_enfermedade_codigo_internacional']?: ''))));</v>
       </c>
       <c r="N32" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="M33" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N33" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="M34" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N34" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="M35" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N35" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="M36" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N36" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="M37" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N37" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="M38" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N38" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="M39" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N39" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="M40" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N40" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="M41" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N41" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="M42" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N42" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="M43" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N43" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="M44" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N44" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="M45" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N45" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="M46" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N46" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="M47" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N47" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="M48" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N48" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="M49" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N49" s="9" t="str">
         <f t="shared" si="7"/>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="M50" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N50" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="M51" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N51" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="M52" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N52" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="M53" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N53" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="M54" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N54" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8252,7 +8252,7 @@
       </c>
       <c r="M55" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N55" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="M56" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N56" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="M57" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N57" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="M58" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N58" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="M59" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N59" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="M60" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N60" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="M61" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N61" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="M62" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N62" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="M63" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N63" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="M64" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N64" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="M65" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N65" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="M66" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N66" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="M67" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N67" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="M68" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N68" s="9" t="str">
         <f t="shared" si="7"/>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="M69" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N69" s="9" t="str">
         <f t="shared" si="7"/>
@@ -9046,8 +9046,8 @@
         <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsPessoa[''],    'required' =&gt; false</v>
       </c>
       <c r="M70" s="13" t="str">
-        <f t="shared" ref="M70:M104" si="17">CONCATENATE("$",F70,"    = ",IF(OR(IFERROR(FIND("dt_",F70),0)&gt;0,IFERROR(FIND("_id",F70),0)&gt;0,F70="status"),"","ucwords(strtolower("),"strip_tags(@$_POST['",B70,F70,"']?: ",IF(F70="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F70),0)&gt;0,IFERROR(FIND("_id",F70),0)&gt;0,F70="status"),";","));"))</f>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <f t="shared" ref="M70:M104" si="17">CONCATENATE("$",F70,"    = ",IF(OR(IFERROR(FIND("dt_",F70),0)&gt;0,IFERROR(FIND("_id",F70),0)&gt;0,F70="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B70,F70,"']?: ",IF(F70="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",F70),0)&gt;0,IFERROR(FIND("_id",F70),0)&gt;0,F70="status"),";",")));"))</f>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N70" s="9" t="str">
         <f t="shared" ref="N70:N104" si="18">CONCATENATE(F70," = ?,")</f>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="M71" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N71" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="M72" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N72" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="M73" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N73" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="M74" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N74" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="M75" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N75" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="M76" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N76" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="M77" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N77" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="M78" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N78" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="M79" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N79" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="M80" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N80" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="M81" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N81" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="M82" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N82" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="M83" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N83" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="M84" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N84" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="M85" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N85" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="M86" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N86" s="9" t="str">
         <f t="shared" si="18"/>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="M87" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N87" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="M88" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N88" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="M89" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N89" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10107,7 +10107,7 @@
       </c>
       <c r="M90" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N90" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="M91" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N91" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="M92" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N92" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10266,7 +10266,7 @@
       </c>
       <c r="M93" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N93" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="M94" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N94" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="M95" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N95" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="M96" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N96" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10478,7 +10478,7 @@
       </c>
       <c r="M97" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N97" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="M98" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N98" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="M99" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N99" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="M100" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N100" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="M101" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N101" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="M102" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N102" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10796,7 +10796,7 @@
       </c>
       <c r="M103" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N103" s="9" t="str">
         <f t="shared" si="18"/>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="M104" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>$    = ucwords(strtolower(strip_tags(@$_POST['']?: '')));</v>
+        <v>$    = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
       </c>
       <c r="N104" s="11" t="str">
         <f t="shared" si="18"/>
@@ -10866,6 +10866,7 @@
     </row>
     <row r="105" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="TvdvWeUqvUS3SC99IY2ggP0n1wsxdvXEsOGFeY71bXPG/lXcR1V2zdO53HQL/3SN7AGhRKGwr+Z2s/ZtTgrX0A==" saltValue="QZAf8LsKu5J1S/VJ8K8OrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>

--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70242A6F-7597-114F-B314-B9496774FA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357B01DC-6133-1A49-9188-5C4196FB8959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="57600" windowHeight="35500" activeTab="5" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
@@ -20430,7 +20430,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03B1AE9-F556-194E-BAEC-2FAF3DE27428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B03B50-33A7-FB45-965E-2E85E8E9DC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="57600" windowHeight="35500" activeTab="4" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="57600" windowHeight="35500" activeTab="5" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="739">
   <si>
     <t>bsc_banco</t>
   </si>
@@ -1947,9 +1947,6 @@
     <t>aluno</t>
   </si>
   <si>
-    <t>tipo_telefone, complemento: ramal</t>
-  </si>
-  <si>
     <t>responsaveis</t>
   </si>
   <si>
@@ -1971,9 +1968,6 @@
     <t>ocorrencia_alunos</t>
   </si>
   <si>
-    <t>identificacao, contatos, parentesco_grau</t>
-  </si>
-  <si>
     <t>responsavel_aluno</t>
   </si>
   <si>
@@ -2103,12 +2097,6 @@
     <t>coordenadores (ensino, pedagógico...)</t>
   </si>
   <si>
-    <t>matricula/portaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo_ensino: regular, turnos_oferecidos, cnpj, ato_criacao, libro/folha, registro_mec, dt_registro, site, num_salas, nun_pavimentos, area_total_m2, capacidade_alunos,   latitude, longitude, </t>
-  </si>
-  <si>
     <t>reconhecimentos_inep</t>
   </si>
   <si>
@@ -2133,10 +2121,142 @@
     <t>conselho</t>
   </si>
   <si>
-    <t>tipo_uo, nome, dt_inicio_mandato, periodicidade, max_part_escolar, max_suplentes, max_part_comunidade, tipo_intervencao, max_membros, obs</t>
-  </si>
-  <si>
     <t>membros</t>
+  </si>
+  <si>
+    <t>tipo_uo, nome, dt_ini_mandato, periodicidade, max_part_escolar, max_suplentes, max_part_comunidade, tipo_intervencao, max_membros, obs</t>
+  </si>
+  <si>
+    <t>acompanhamento</t>
+  </si>
+  <si>
+    <t>nome, tipo(titular, suplente), funcao, dt_ini_mandato, dt_fim_mandato, tipo_membro</t>
+  </si>
+  <si>
+    <t>ano_letivo, dt_acompanhamento, tipo_acompanhamento (supervisão, orientacao_pedagogica...), situacao</t>
+  </si>
+  <si>
+    <t>suplente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo, tratamento, nome, matricula/portaria, ano letivo, dt_ini, dt_fim, </t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>tipo (logo_escola, timbrado, cabecalho_cerrtificado, carteirinha...), tamanho (KB, MB), alt, larg, (px), formato...</t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>tipo_ensino: regular, turnos_oferecidos, cnpj, ato_criacao, libro/folha, registro_mec, dt_registro, site, num_salas, nun_pavimentos, area_total_m2, capacidade_alunos,   latitude, longitude</t>
+  </si>
+  <si>
+    <t>sed/gep</t>
+  </si>
+  <si>
+    <t>tipo_telefone, whastsapp complemento: ramal, latitude, longitude, nucleo_habitacional, tipo_moradia (aluguel, cedida, propria), zona (urbana_rural), cia_moradia (so_pai, so_mae, pai_mae, familiares, outras_pessoas)</t>
+  </si>
+  <si>
+    <t>pessoa</t>
+  </si>
+  <si>
+    <t>cod_senso, situacao_aluno, tipo_deficiencia, tea, superdotacao/altas_habilidades, ue_anterior, matricula_ue_anterior</t>
+  </si>
+  <si>
+    <t>nis (num_ident_social)</t>
+  </si>
+  <si>
+    <t>pai_local_trabalho, pai_escolaridade, pai_estado_civil pai_renda_familiar, mae_local_trabalho, mae_renda_familiar, mae_escolaridade, mae_estado_civil</t>
+  </si>
+  <si>
+    <t>identificacao, contatos, parentesco_grau, estado_civil</t>
+  </si>
+  <si>
+    <t>historico</t>
+  </si>
+  <si>
+    <t>aluno_id, etapa_id, ano, ue_id, modalidade,  etapa, serie, turma, municipio_id, conceito, frequencia, media, ch_anual, matricula</t>
+  </si>
+  <si>
+    <t>programas_sociais</t>
+  </si>
+  <si>
+    <t>id, ano, dt, num_registro, nome_programa, responsável</t>
+  </si>
+  <si>
+    <t>prontuario</t>
+  </si>
+  <si>
+    <t>id, ano, dt, responsavel, prontuario (pedagogico, cia_deficiencia, desenvolvimento), ocorrencia_prontuario, gravidade (alta, baixa, media, sem), evolucao (andamento, encerrada), descricao</t>
+  </si>
+  <si>
+    <t>saude</t>
+  </si>
+  <si>
+    <t>livros didativos</t>
+  </si>
+  <si>
+    <t>serie, disciplina</t>
+  </si>
+  <si>
+    <t>aluno_id, dt, ano, peso, alt, imc, num_sus, sataus_sus, uso_oculos, medicamento_controlado, alergia, cod_cid, cptea</t>
+  </si>
+  <si>
+    <t>medicamentos_em_uso</t>
+  </si>
+  <si>
+    <t>alergias</t>
+  </si>
+  <si>
+    <t>nutricional, antropometrica, oftalmologica, auditiva, psicomotricial, buca, calendario_vacinal, hta</t>
+  </si>
+  <si>
+    <t>cursos_profisionalizantes</t>
+  </si>
+  <si>
+    <t>ano, dt, curso, ch, avaliacao, descricao</t>
+  </si>
+  <si>
+    <t>atendimento_aluno</t>
+  </si>
+  <si>
+    <t>anexos</t>
+  </si>
+  <si>
+    <t>encaminhamenntos</t>
+  </si>
+  <si>
+    <t>cagtegoria (psoco-pedag, clincio, docente, outros), tipo_atend (psico 1, assist_social 1), dt, nome_profissiona, obs</t>
+  </si>
+  <si>
+    <t>transporte_escolar</t>
+  </si>
+  <si>
+    <t>responsavel (estadual, municipal, nenhum)</t>
+  </si>
+  <si>
+    <t>utiliza, transporte_1, transporte_2...</t>
+  </si>
+  <si>
+    <t>transportes</t>
+  </si>
+  <si>
+    <t>escolarizacao_externa</t>
+  </si>
+  <si>
+    <t>hospita/domicilio...</t>
+  </si>
+  <si>
+    <t>aguaviario - (capacidade &gt;35,&lt;5, 15-35, 5-10) / rodoviario (bicicleta, onibus, tracao_animal, vans/kombi...)</t>
+  </si>
+  <si>
+    <t>anexo/comprovantes</t>
+  </si>
+  <si>
+    <t>tipo_arquivo, documento</t>
   </si>
 </sst>
 </file>
@@ -2490,11 +2610,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2502,14 +2619,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14039,7 +14159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488E7A0-5FC7-8C46-9378-12741E521CD7}">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -14063,14 +14183,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O2" t="str">
@@ -14079,86 +14199,86 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="39" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>571</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>572</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="53" t="s">
         <v>574</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="53" t="s">
         <v>573</v>
       </c>
       <c r="N3" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="55" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="39" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="40" t="s">
         <v>597</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="55"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
@@ -20397,14 +20517,6 @@
     <row r="105" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
@@ -20416,6 +20528,14 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -20424,13 +20544,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0764-85D4-6E42-A4C0-90E2B54A666E}">
-  <dimension ref="A3:L1133"/>
+  <dimension ref="A3:L1145"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20488,15 +20608,25 @@
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>675</v>
+      </c>
       <c r="B4" s="42" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="43" t="s">
+        <v>706</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>709</v>
+      </c>
       <c r="G4" s="43"/>
       <c r="H4" s="44"/>
       <c r="I4" s="43"/>
@@ -21590,7 +21720,7 @@
     </row>
     <row r="78" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A78" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B78" s="42" t="s">
         <v>608</v>
@@ -21599,10 +21729,10 @@
         <v>608</v>
       </c>
       <c r="D78" s="44" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F78" s="44"/>
       <c r="G78" s="43"/>
@@ -21612,9 +21742,9 @@
       <c r="K78" s="43"/>
       <c r="L78" s="44"/>
     </row>
-    <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B79" s="42"/>
       <c r="C79" s="43"/>
@@ -21622,7 +21752,9 @@
       <c r="E79" s="43" t="s">
         <v>630</v>
       </c>
-      <c r="F79" s="44"/>
+      <c r="F79" s="44" t="s">
+        <v>699</v>
+      </c>
       <c r="G79" s="43"/>
       <c r="H79" s="44"/>
       <c r="I79" s="43"/>
@@ -21630,17 +21762,19 @@
       <c r="K79" s="43"/>
       <c r="L79" s="44"/>
     </row>
-    <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B80" s="42"/>
       <c r="C80" s="43"/>
       <c r="D80" s="44"/>
       <c r="E80" s="43" t="s">
-        <v>685</v>
-      </c>
-      <c r="F80" s="44"/>
+        <v>683</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>699</v>
+      </c>
       <c r="G80" s="43"/>
       <c r="H80" s="44"/>
       <c r="I80" s="43"/>
@@ -21648,18 +21782,18 @@
       <c r="K80" s="43"/>
       <c r="L80" s="44"/>
     </row>
-    <row r="81" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B81" s="42"/>
       <c r="C81" s="43"/>
       <c r="D81" s="44"/>
       <c r="E81" s="43" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F81" s="44" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="G81" s="43"/>
       <c r="H81" s="44"/>
@@ -21670,16 +21804,16 @@
     </row>
     <row r="82" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B82" s="42"/>
       <c r="C82" s="43"/>
       <c r="D82" s="44"/>
       <c r="E82" s="43" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F82" s="44" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G82" s="43"/>
       <c r="H82" s="44"/>
@@ -21690,19 +21824,19 @@
     </row>
     <row r="83" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B83" s="42"/>
       <c r="C83" s="43"/>
       <c r="D83" s="44"/>
       <c r="E83" s="43" t="s">
+        <v>687</v>
+      </c>
+      <c r="F83" s="44" t="s">
         <v>691</v>
       </c>
-      <c r="F83" s="44" t="s">
-        <v>695</v>
-      </c>
       <c r="G83" s="43" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H83" s="44"/>
       <c r="I83" s="43"/>
@@ -21712,7 +21846,7 @@
     </row>
     <row r="84" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B84" s="42"/>
       <c r="C84" s="43"/>
@@ -21720,7 +21854,7 @@
       <c r="E84" s="43"/>
       <c r="F84" s="44"/>
       <c r="G84" s="43" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H84" s="44"/>
       <c r="I84" s="43"/>
@@ -21730,7 +21864,7 @@
     </row>
     <row r="85" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B85" s="42"/>
       <c r="C85" s="43"/>
@@ -21738,7 +21872,7 @@
       <c r="E85" s="43"/>
       <c r="F85" s="44"/>
       <c r="G85" s="43" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H85" s="44"/>
       <c r="I85" s="43"/>
@@ -21748,37 +21882,45 @@
     </row>
     <row r="86" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A86" s="49" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B86" s="42"/>
       <c r="C86" s="43"/>
       <c r="D86" s="44"/>
       <c r="E86" s="43" t="s">
+        <v>692</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="G86" s="43" t="s">
+        <v>693</v>
+      </c>
+      <c r="H86" s="44" t="s">
         <v>696</v>
       </c>
-      <c r="F86" s="44" t="s">
-        <v>697</v>
-      </c>
-      <c r="G86" s="43" t="s">
+      <c r="I86" s="43" t="s">
         <v>698</v>
       </c>
-      <c r="H86" s="44"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="44"/>
+      <c r="J86" s="44" t="s">
+        <v>696</v>
+      </c>
       <c r="K86" s="43"/>
       <c r="L86" s="44"/>
     </row>
-    <row r="87" spans="1:12" ht="340" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
+    <row r="87" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A87" s="49" t="s">
+        <v>675</v>
+      </c>
       <c r="B87" s="42"/>
-      <c r="C87" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="D87" s="44" t="s">
-        <v>658</v>
-      </c>
-      <c r="E87" s="43"/>
-      <c r="F87" s="44"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="F87" s="44" t="s">
+        <v>697</v>
+      </c>
       <c r="G87" s="43"/>
       <c r="H87" s="44"/>
       <c r="I87" s="43"/>
@@ -21786,17 +21928,19 @@
       <c r="K87" s="43"/>
       <c r="L87" s="44"/>
     </row>
-    <row r="88" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="41" t="s">
-        <v>629</v>
+    <row r="88" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A88" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B88" s="42"/>
-      <c r="C88" s="43" t="s">
-        <v>632</v>
-      </c>
+      <c r="C88" s="43"/>
       <c r="D88" s="44"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="44"/>
+      <c r="E88" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>701</v>
+      </c>
       <c r="G88" s="43"/>
       <c r="H88" s="44"/>
       <c r="I88" s="43"/>
@@ -21804,16 +21948,16 @@
       <c r="K88" s="43"/>
       <c r="L88" s="44"/>
     </row>
-    <row r="89" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A89" s="41" t="s">
         <v>629</v>
       </c>
       <c r="B89" s="42"/>
       <c r="C89" s="43" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E89" s="43"/>
       <c r="F89" s="44"/>
@@ -21830,7 +21974,7 @@
       </c>
       <c r="B90" s="42"/>
       <c r="C90" s="43" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="D90" s="44"/>
       <c r="E90" s="43"/>
@@ -21842,15 +21986,17 @@
       <c r="K90" s="43"/>
       <c r="L90" s="44"/>
     </row>
-    <row r="91" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A91" s="41" t="s">
         <v>629</v>
       </c>
       <c r="B91" s="42"/>
       <c r="C91" s="43" t="s">
-        <v>660</v>
-      </c>
-      <c r="D91" s="44"/>
+        <v>633</v>
+      </c>
+      <c r="D91" s="44" t="s">
+        <v>657</v>
+      </c>
       <c r="E91" s="43"/>
       <c r="F91" s="44"/>
       <c r="G91" s="43"/>
@@ -21860,20 +22006,16 @@
       <c r="K91" s="43"/>
       <c r="L91" s="44"/>
     </row>
-    <row r="92" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="41" t="s">
         <v>629</v>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="D92" s="44" t="s">
-        <v>652</v>
-      </c>
-      <c r="E92" s="43" t="s">
-        <v>612</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="D92" s="44"/>
+      <c r="E92" s="43"/>
       <c r="F92" s="44"/>
       <c r="G92" s="43"/>
       <c r="H92" s="44"/>
@@ -21882,25 +22024,19 @@
       <c r="K92" s="43"/>
       <c r="L92" s="44"/>
     </row>
-    <row r="93" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A93" s="49" t="s">
-        <v>677</v>
+    <row r="93" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="41" t="s">
+        <v>629</v>
       </c>
       <c r="B93" s="42"/>
-      <c r="C93" s="43"/>
+      <c r="C93" s="43" t="s">
+        <v>658</v>
+      </c>
       <c r="D93" s="44"/>
-      <c r="E93" s="43" t="s">
-        <v>678</v>
-      </c>
-      <c r="F93" s="44" t="s">
-        <v>679</v>
-      </c>
-      <c r="G93" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="H93" s="44" t="s">
-        <v>682</v>
-      </c>
+      <c r="E93" s="43"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="44"/>
       <c r="I93" s="43"/>
       <c r="J93" s="44"/>
       <c r="K93" s="43"/>
@@ -21908,63 +22044,73 @@
     </row>
     <row r="94" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="49" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="B94" s="42"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="H94" s="44" t="s">
-        <v>681</v>
-      </c>
+      <c r="C94" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="D94" s="44" t="s">
+        <v>707</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="F94" s="44" t="s">
+        <v>650</v>
+      </c>
+      <c r="G94" s="43"/>
+      <c r="H94" s="44"/>
       <c r="I94" s="43"/>
       <c r="J94" s="44"/>
       <c r="K94" s="43"/>
       <c r="L94" s="44"/>
     </row>
-    <row r="95" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="41" t="s">
-        <v>629</v>
+    <row r="95" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A95" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="43"/>
       <c r="D95" s="44"/>
       <c r="E95" s="43" t="s">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="F95" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="G95" s="43"/>
-      <c r="H95" s="44"/>
+        <v>677</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>678</v>
+      </c>
+      <c r="H95" s="44" t="s">
+        <v>680</v>
+      </c>
       <c r="I95" s="43"/>
       <c r="J95" s="44"/>
       <c r="K95" s="43"/>
       <c r="L95" s="44"/>
     </row>
-    <row r="96" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="41" t="s">
-        <v>629</v>
+    <row r="96" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A96" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="43"/>
       <c r="D96" s="44"/>
-      <c r="E96" s="43" t="s">
-        <v>615</v>
-      </c>
+      <c r="E96" s="43"/>
       <c r="F96" s="44"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="44"/>
+      <c r="G96" s="43" t="s">
+        <v>681</v>
+      </c>
+      <c r="H96" s="44" t="s">
+        <v>679</v>
+      </c>
       <c r="I96" s="43"/>
       <c r="J96" s="44"/>
       <c r="K96" s="43"/>
       <c r="L96" s="44"/>
     </row>
-    <row r="97" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A97" s="41" t="s">
         <v>629</v>
       </c>
@@ -21972,10 +22118,10 @@
       <c r="C97" s="43"/>
       <c r="D97" s="44"/>
       <c r="E97" s="43" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>643</v>
+        <v>705</v>
       </c>
       <c r="G97" s="43"/>
       <c r="H97" s="44"/>
@@ -21984,7 +22130,7 @@
       <c r="K97" s="43"/>
       <c r="L97" s="44"/>
     </row>
-    <row r="98" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="41" t="s">
         <v>629</v>
       </c>
@@ -21992,34 +22138,34 @@
       <c r="C98" s="43"/>
       <c r="D98" s="44"/>
       <c r="E98" s="43" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="F98" s="44" t="s">
-        <v>641</v>
+        <v>702</v>
       </c>
       <c r="G98" s="43" t="s">
-        <v>642</v>
+        <v>737</v>
       </c>
       <c r="H98" s="44" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="I98" s="43"/>
       <c r="J98" s="44"/>
       <c r="K98" s="43"/>
       <c r="L98" s="44"/>
     </row>
-    <row r="99" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="41" t="s">
-        <v>629</v>
+    <row r="99" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="49" t="s">
+        <v>704</v>
       </c>
       <c r="B99" s="42"/>
       <c r="C99" s="43"/>
       <c r="D99" s="44"/>
       <c r="E99" s="43" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F99" s="44" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="G99" s="43"/>
       <c r="H99" s="44"/>
@@ -22028,7 +22174,7 @@
       <c r="K99" s="43"/>
       <c r="L99" s="44"/>
     </row>
-    <row r="100" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A100" s="41" t="s">
         <v>629</v>
       </c>
@@ -22036,13 +22182,17 @@
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="43" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F100" s="44" t="s">
-        <v>675</v>
-      </c>
-      <c r="G100" s="43"/>
-      <c r="H100" s="44"/>
+        <v>640</v>
+      </c>
+      <c r="G100" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="H100" s="44" t="s">
+        <v>659</v>
+      </c>
       <c r="I100" s="43"/>
       <c r="J100" s="44"/>
       <c r="K100" s="43"/>
@@ -22053,17 +22203,13 @@
         <v>629</v>
       </c>
       <c r="B101" s="42"/>
-      <c r="C101" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="D101" s="44" t="s">
-        <v>647</v>
-      </c>
+      <c r="C101" s="43"/>
+      <c r="D101" s="44"/>
       <c r="E101" s="43" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F101" s="44" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="G101" s="43"/>
       <c r="H101" s="44"/>
@@ -22072,17 +22218,19 @@
       <c r="K101" s="43"/>
       <c r="L101" s="44"/>
     </row>
-    <row r="102" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="41" t="s">
         <v>629</v>
       </c>
       <c r="B102" s="42"/>
-      <c r="C102" s="43" t="s">
-        <v>649</v>
-      </c>
+      <c r="C102" s="43"/>
       <c r="D102" s="44"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="44"/>
+      <c r="E102" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>673</v>
+      </c>
       <c r="G102" s="43"/>
       <c r="H102" s="44"/>
       <c r="I102" s="43"/>
@@ -22090,17 +22238,19 @@
       <c r="K102" s="43"/>
       <c r="L102" s="44"/>
     </row>
-    <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="41" t="s">
-        <v>629</v>
+    <row r="103" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A103" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B103" s="42"/>
-      <c r="C103" s="43" t="s">
-        <v>650</v>
-      </c>
+      <c r="C103" s="43"/>
       <c r="D103" s="44"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="44"/>
+      <c r="E103" s="43" t="s">
+        <v>711</v>
+      </c>
+      <c r="F103" s="44" t="s">
+        <v>712</v>
+      </c>
       <c r="G103" s="43"/>
       <c r="H103" s="44"/>
       <c r="I103" s="43"/>
@@ -22108,17 +22258,19 @@
       <c r="K103" s="43"/>
       <c r="L103" s="44"/>
     </row>
-    <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="41" t="s">
-        <v>629</v>
+    <row r="104" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A104" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B104" s="42"/>
-      <c r="C104" s="43" t="s">
-        <v>640</v>
-      </c>
+      <c r="C104" s="43"/>
       <c r="D104" s="44"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="44"/>
+      <c r="E104" s="43" t="s">
+        <v>713</v>
+      </c>
+      <c r="F104" s="44" t="s">
+        <v>714</v>
+      </c>
       <c r="G104" s="43"/>
       <c r="H104" s="44"/>
       <c r="I104" s="43"/>
@@ -22126,22 +22278,18 @@
       <c r="K104" s="43"/>
       <c r="L104" s="44"/>
     </row>
-    <row r="105" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A105" s="41" t="s">
-        <v>629</v>
+    <row r="105" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A105" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B105" s="42"/>
-      <c r="C105" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D105" s="44" t="s">
-        <v>662</v>
-      </c>
+      <c r="C105" s="43"/>
+      <c r="D105" s="44"/>
       <c r="E105" s="43" t="s">
-        <v>653</v>
+        <v>715</v>
       </c>
       <c r="F105" s="44" t="s">
-        <v>654</v>
+        <v>716</v>
       </c>
       <c r="G105" s="43"/>
       <c r="H105" s="44"/>
@@ -22150,22 +22298,18 @@
       <c r="K105" s="43"/>
       <c r="L105" s="44"/>
     </row>
-    <row r="106" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A106" s="41" t="s">
-        <v>629</v>
+    <row r="106" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B106" s="42"/>
-      <c r="C106" s="43" t="s">
-        <v>638</v>
-      </c>
-      <c r="D106" s="44" t="s">
-        <v>663</v>
-      </c>
+      <c r="C106" s="43"/>
+      <c r="D106" s="44"/>
       <c r="E106" s="43" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
       <c r="F106" s="44" t="s">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="G106" s="43"/>
       <c r="H106" s="44"/>
@@ -22174,83 +22318,79 @@
       <c r="K106" s="43"/>
       <c r="L106" s="44"/>
     </row>
-    <row r="107" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A107" s="41" t="s">
-        <v>629</v>
+    <row r="107" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A107" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B107" s="42"/>
-      <c r="C107" s="43" t="s">
-        <v>657</v>
-      </c>
-      <c r="D107" s="44" t="s">
-        <v>664</v>
-      </c>
+      <c r="C107" s="43"/>
+      <c r="D107" s="44"/>
       <c r="E107" s="43" t="s">
-        <v>665</v>
-      </c>
-      <c r="F107" s="44"/>
-      <c r="G107" s="43"/>
+        <v>717</v>
+      </c>
+      <c r="F107" s="44" t="s">
+        <v>720</v>
+      </c>
+      <c r="G107" s="43" t="s">
+        <v>721</v>
+      </c>
       <c r="H107" s="44"/>
       <c r="I107" s="43"/>
       <c r="J107" s="44"/>
       <c r="K107" s="43"/>
       <c r="L107" s="44"/>
     </row>
-    <row r="108" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="41" t="s">
-        <v>629</v>
+    <row r="108" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B108" s="42"/>
       <c r="C108" s="43"/>
       <c r="D108" s="44"/>
-      <c r="E108" s="43" t="s">
-        <v>666</v>
-      </c>
+      <c r="E108" s="43"/>
       <c r="F108" s="44"/>
-      <c r="G108" s="43"/>
+      <c r="G108" s="43" t="s">
+        <v>722</v>
+      </c>
       <c r="H108" s="44"/>
       <c r="I108" s="43"/>
       <c r="J108" s="44"/>
       <c r="K108" s="43"/>
       <c r="L108" s="44"/>
     </row>
-    <row r="109" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="41" t="s">
-        <v>629</v>
+    <row r="109" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A109" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B109" s="42"/>
       <c r="C109" s="43"/>
       <c r="D109" s="44"/>
-      <c r="E109" s="43" t="s">
-        <v>667</v>
-      </c>
+      <c r="E109" s="43"/>
       <c r="F109" s="44"/>
       <c r="G109" s="43" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="H109" s="44" t="s">
-        <v>669</v>
+        <v>723</v>
       </c>
       <c r="I109" s="43"/>
       <c r="J109" s="44"/>
       <c r="K109" s="43"/>
       <c r="L109" s="44"/>
     </row>
-    <row r="110" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A110" s="41" t="s">
-        <v>629</v>
+    <row r="110" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B110" s="42"/>
-      <c r="C110" s="43" t="s">
-        <v>670</v>
-      </c>
-      <c r="D110" s="44" t="s">
-        <v>673</v>
-      </c>
+      <c r="C110" s="43"/>
+      <c r="D110" s="44"/>
       <c r="E110" s="43" t="s">
-        <v>671</v>
-      </c>
-      <c r="F110" s="44"/>
+        <v>724</v>
+      </c>
+      <c r="F110" s="44" t="s">
+        <v>725</v>
+      </c>
       <c r="G110" s="43"/>
       <c r="H110" s="44"/>
       <c r="I110" s="43"/>
@@ -22258,18 +22398,22 @@
       <c r="K110" s="43"/>
       <c r="L110" s="44"/>
     </row>
-    <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="41" t="s">
-        <v>629</v>
+    <row r="111" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="B111" s="42"/>
       <c r="C111" s="43"/>
       <c r="D111" s="44"/>
       <c r="E111" s="43" t="s">
-        <v>672</v>
-      </c>
-      <c r="F111" s="44"/>
-      <c r="G111" s="43"/>
+        <v>730</v>
+      </c>
+      <c r="F111" s="44" t="s">
+        <v>732</v>
+      </c>
+      <c r="G111" s="43" t="s">
+        <v>733</v>
+      </c>
       <c r="H111" s="44"/>
       <c r="I111" s="43"/>
       <c r="J111" s="44"/>
@@ -22277,16 +22421,16 @@
       <c r="L111" s="44"/>
     </row>
     <row r="112" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="41" t="s">
-        <v>629</v>
-      </c>
+      <c r="A112" s="49"/>
       <c r="B112" s="42"/>
-      <c r="C112" s="43" t="s">
-        <v>674</v>
-      </c>
+      <c r="C112" s="43"/>
       <c r="D112" s="44"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="44"/>
+      <c r="E112" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="F112" s="44" t="s">
+        <v>735</v>
+      </c>
       <c r="G112" s="43"/>
       <c r="H112" s="44"/>
       <c r="I112" s="43"/>
@@ -22294,13 +22438,23 @@
       <c r="K112" s="43"/>
       <c r="L112" s="44"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="41"/>
+    <row r="113" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B113" s="42"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="44"/>
+      <c r="C113" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="D113" s="44" t="s">
+        <v>645</v>
+      </c>
+      <c r="E113" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="F113" s="44" t="s">
+        <v>644</v>
+      </c>
       <c r="G113" s="43"/>
       <c r="H113" s="44"/>
       <c r="I113" s="43"/>
@@ -22308,10 +22462,14 @@
       <c r="K113" s="43"/>
       <c r="L113" s="44"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="41"/>
+    <row r="114" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B114" s="42"/>
-      <c r="C114" s="43"/>
+      <c r="C114" s="43" t="s">
+        <v>647</v>
+      </c>
       <c r="D114" s="44"/>
       <c r="E114" s="43"/>
       <c r="F114" s="44"/>
@@ -22322,10 +22480,14 @@
       <c r="K114" s="43"/>
       <c r="L114" s="44"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="41"/>
+    <row r="115" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B115" s="42"/>
-      <c r="C115" s="43"/>
+      <c r="C115" s="43" t="s">
+        <v>648</v>
+      </c>
       <c r="D115" s="44"/>
       <c r="E115" s="43"/>
       <c r="F115" s="44"/>
@@ -22336,10 +22498,14 @@
       <c r="K115" s="43"/>
       <c r="L115" s="44"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="41"/>
+    <row r="116" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B116" s="42"/>
-      <c r="C116" s="43"/>
+      <c r="C116" s="43" t="s">
+        <v>639</v>
+      </c>
       <c r="D116" s="44"/>
       <c r="E116" s="43"/>
       <c r="F116" s="44"/>
@@ -22350,13 +22516,23 @@
       <c r="K116" s="43"/>
       <c r="L116" s="44"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="41"/>
+    <row r="117" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A117" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B117" s="42"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="44"/>
+      <c r="C117" s="43" t="s">
+        <v>649</v>
+      </c>
+      <c r="D117" s="44" t="s">
+        <v>660</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="F117" s="44" t="s">
+        <v>652</v>
+      </c>
       <c r="G117" s="43"/>
       <c r="H117" s="44"/>
       <c r="I117" s="43"/>
@@ -22364,13 +22540,23 @@
       <c r="K117" s="43"/>
       <c r="L117" s="44"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="41"/>
+    <row r="118" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A118" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B118" s="42"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="44"/>
+      <c r="C118" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="D118" s="44" t="s">
+        <v>661</v>
+      </c>
+      <c r="E118" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="F118" s="44" t="s">
+        <v>654</v>
+      </c>
       <c r="G118" s="43"/>
       <c r="H118" s="44"/>
       <c r="I118" s="43"/>
@@ -22378,12 +22564,20 @@
       <c r="K118" s="43"/>
       <c r="L118" s="44"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="41"/>
+    <row r="119" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A119" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B119" s="42"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="43"/>
+      <c r="C119" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="D119" s="44" t="s">
+        <v>662</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>663</v>
+      </c>
       <c r="F119" s="44"/>
       <c r="G119" s="43"/>
       <c r="H119" s="44"/>
@@ -22392,12 +22586,16 @@
       <c r="K119" s="43"/>
       <c r="L119" s="44"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="41"/>
+    <row r="120" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B120" s="42"/>
       <c r="C120" s="43"/>
       <c r="D120" s="44"/>
-      <c r="E120" s="43"/>
+      <c r="E120" s="43" t="s">
+        <v>664</v>
+      </c>
       <c r="F120" s="44"/>
       <c r="G120" s="43"/>
       <c r="H120" s="44"/>
@@ -22406,26 +22604,42 @@
       <c r="K120" s="43"/>
       <c r="L120" s="44"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="41"/>
+    <row r="121" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B121" s="42"/>
       <c r="C121" s="43"/>
       <c r="D121" s="44"/>
-      <c r="E121" s="43"/>
+      <c r="E121" s="43" t="s">
+        <v>665</v>
+      </c>
       <c r="F121" s="44"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="44"/>
+      <c r="G121" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="H121" s="44" t="s">
+        <v>667</v>
+      </c>
       <c r="I121" s="43"/>
       <c r="J121" s="44"/>
       <c r="K121" s="43"/>
       <c r="L121" s="44"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="41"/>
+    <row r="122" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A122" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B122" s="42"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="43"/>
+      <c r="C122" s="43" t="s">
+        <v>668</v>
+      </c>
+      <c r="D122" s="44" t="s">
+        <v>671</v>
+      </c>
+      <c r="E122" s="43" t="s">
+        <v>669</v>
+      </c>
       <c r="F122" s="44"/>
       <c r="G122" s="43"/>
       <c r="H122" s="44"/>
@@ -22434,12 +22648,16 @@
       <c r="K122" s="43"/>
       <c r="L122" s="44"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="41"/>
+    <row r="123" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B123" s="42"/>
       <c r="C123" s="43"/>
       <c r="D123" s="44"/>
-      <c r="E123" s="43"/>
+      <c r="E123" s="43" t="s">
+        <v>670</v>
+      </c>
       <c r="F123" s="44"/>
       <c r="G123" s="43"/>
       <c r="H123" s="44"/>
@@ -22448,10 +22666,14 @@
       <c r="K123" s="43"/>
       <c r="L123" s="44"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="41"/>
+    <row r="124" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="41" t="s">
+        <v>629</v>
+      </c>
       <c r="B124" s="42"/>
-      <c r="C124" s="43"/>
+      <c r="C124" s="43" t="s">
+        <v>672</v>
+      </c>
       <c r="D124" s="44"/>
       <c r="E124" s="43"/>
       <c r="F124" s="44"/>
@@ -22462,12 +22684,18 @@
       <c r="K124" s="43"/>
       <c r="L124" s="44"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A125" s="41"/>
       <c r="B125" s="42"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="43"/>
+      <c r="C125" s="43" t="s">
+        <v>726</v>
+      </c>
+      <c r="D125" s="44" t="s">
+        <v>729</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>727</v>
+      </c>
       <c r="F125" s="44"/>
       <c r="G125" s="43"/>
       <c r="H125" s="44"/>
@@ -22476,12 +22704,14 @@
       <c r="K125" s="43"/>
       <c r="L125" s="44"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="41"/>
       <c r="B126" s="42"/>
       <c r="C126" s="43"/>
       <c r="D126" s="44"/>
-      <c r="E126" s="43"/>
+      <c r="E126" s="43" t="s">
+        <v>728</v>
+      </c>
       <c r="F126" s="44"/>
       <c r="G126" s="43"/>
       <c r="H126" s="44"/>
@@ -22490,13 +22720,21 @@
       <c r="K126" s="43"/>
       <c r="L126" s="44"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A127" s="41"/>
       <c r="B127" s="42"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="44"/>
+      <c r="C127" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="D127" s="44" t="s">
+        <v>731</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>733</v>
+      </c>
+      <c r="F127" s="44" t="s">
+        <v>736</v>
+      </c>
       <c r="G127" s="43"/>
       <c r="H127" s="44"/>
       <c r="I127" s="43"/>
@@ -36588,6 +36826,174 @@
       <c r="K1133" s="43"/>
       <c r="L1133" s="44"/>
     </row>
+    <row r="1134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1134" s="41"/>
+      <c r="B1134" s="42"/>
+      <c r="C1134" s="43"/>
+      <c r="D1134" s="44"/>
+      <c r="E1134" s="43"/>
+      <c r="F1134" s="44"/>
+      <c r="G1134" s="43"/>
+      <c r="H1134" s="44"/>
+      <c r="I1134" s="43"/>
+      <c r="J1134" s="44"/>
+      <c r="K1134" s="43"/>
+      <c r="L1134" s="44"/>
+    </row>
+    <row r="1135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1135" s="41"/>
+      <c r="B1135" s="42"/>
+      <c r="C1135" s="43"/>
+      <c r="D1135" s="44"/>
+      <c r="E1135" s="43"/>
+      <c r="F1135" s="44"/>
+      <c r="G1135" s="43"/>
+      <c r="H1135" s="44"/>
+      <c r="I1135" s="43"/>
+      <c r="J1135" s="44"/>
+      <c r="K1135" s="43"/>
+      <c r="L1135" s="44"/>
+    </row>
+    <row r="1136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1136" s="41"/>
+      <c r="B1136" s="42"/>
+      <c r="C1136" s="43"/>
+      <c r="D1136" s="44"/>
+      <c r="E1136" s="43"/>
+      <c r="F1136" s="44"/>
+      <c r="G1136" s="43"/>
+      <c r="H1136" s="44"/>
+      <c r="I1136" s="43"/>
+      <c r="J1136" s="44"/>
+      <c r="K1136" s="43"/>
+      <c r="L1136" s="44"/>
+    </row>
+    <row r="1137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1137" s="41"/>
+      <c r="B1137" s="42"/>
+      <c r="C1137" s="43"/>
+      <c r="D1137" s="44"/>
+      <c r="E1137" s="43"/>
+      <c r="F1137" s="44"/>
+      <c r="G1137" s="43"/>
+      <c r="H1137" s="44"/>
+      <c r="I1137" s="43"/>
+      <c r="J1137" s="44"/>
+      <c r="K1137" s="43"/>
+      <c r="L1137" s="44"/>
+    </row>
+    <row r="1138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1138" s="41"/>
+      <c r="B1138" s="42"/>
+      <c r="C1138" s="43"/>
+      <c r="D1138" s="44"/>
+      <c r="E1138" s="43"/>
+      <c r="F1138" s="44"/>
+      <c r="G1138" s="43"/>
+      <c r="H1138" s="44"/>
+      <c r="I1138" s="43"/>
+      <c r="J1138" s="44"/>
+      <c r="K1138" s="43"/>
+      <c r="L1138" s="44"/>
+    </row>
+    <row r="1139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1139" s="41"/>
+      <c r="B1139" s="42"/>
+      <c r="C1139" s="43"/>
+      <c r="D1139" s="44"/>
+      <c r="E1139" s="43"/>
+      <c r="F1139" s="44"/>
+      <c r="G1139" s="43"/>
+      <c r="H1139" s="44"/>
+      <c r="I1139" s="43"/>
+      <c r="J1139" s="44"/>
+      <c r="K1139" s="43"/>
+      <c r="L1139" s="44"/>
+    </row>
+    <row r="1140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1140" s="41"/>
+      <c r="B1140" s="42"/>
+      <c r="C1140" s="43"/>
+      <c r="D1140" s="44"/>
+      <c r="E1140" s="43"/>
+      <c r="F1140" s="44"/>
+      <c r="G1140" s="43"/>
+      <c r="H1140" s="44"/>
+      <c r="I1140" s="43"/>
+      <c r="J1140" s="44"/>
+      <c r="K1140" s="43"/>
+      <c r="L1140" s="44"/>
+    </row>
+    <row r="1141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1141" s="41"/>
+      <c r="B1141" s="42"/>
+      <c r="C1141" s="43"/>
+      <c r="D1141" s="44"/>
+      <c r="E1141" s="43"/>
+      <c r="F1141" s="44"/>
+      <c r="G1141" s="43"/>
+      <c r="H1141" s="44"/>
+      <c r="I1141" s="43"/>
+      <c r="J1141" s="44"/>
+      <c r="K1141" s="43"/>
+      <c r="L1141" s="44"/>
+    </row>
+    <row r="1142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1142" s="41"/>
+      <c r="B1142" s="42"/>
+      <c r="C1142" s="43"/>
+      <c r="D1142" s="44"/>
+      <c r="E1142" s="43"/>
+      <c r="F1142" s="44"/>
+      <c r="G1142" s="43"/>
+      <c r="H1142" s="44"/>
+      <c r="I1142" s="43"/>
+      <c r="J1142" s="44"/>
+      <c r="K1142" s="43"/>
+      <c r="L1142" s="44"/>
+    </row>
+    <row r="1143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1143" s="41"/>
+      <c r="B1143" s="42"/>
+      <c r="C1143" s="43"/>
+      <c r="D1143" s="44"/>
+      <c r="E1143" s="43"/>
+      <c r="F1143" s="44"/>
+      <c r="G1143" s="43"/>
+      <c r="H1143" s="44"/>
+      <c r="I1143" s="43"/>
+      <c r="J1143" s="44"/>
+      <c r="K1143" s="43"/>
+      <c r="L1143" s="44"/>
+    </row>
+    <row r="1144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1144" s="41"/>
+      <c r="B1144" s="42"/>
+      <c r="C1144" s="43"/>
+      <c r="D1144" s="44"/>
+      <c r="E1144" s="43"/>
+      <c r="F1144" s="44"/>
+      <c r="G1144" s="43"/>
+      <c r="H1144" s="44"/>
+      <c r="I1144" s="43"/>
+      <c r="J1144" s="44"/>
+      <c r="K1144" s="43"/>
+      <c r="L1144" s="44"/>
+    </row>
+    <row r="1145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1145" s="41"/>
+      <c r="B1145" s="42"/>
+      <c r="C1145" s="43"/>
+      <c r="D1145" s="44"/>
+      <c r="E1145" s="43"/>
+      <c r="F1145" s="44"/>
+      <c r="G1145" s="43"/>
+      <c r="H1145" s="44"/>
+      <c r="I1145" s="43"/>
+      <c r="J1145" s="44"/>
+      <c r="K1145" s="43"/>
+      <c r="L1145" s="44"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DC93F5-7F3B-884E-8F73-965B8A36F9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65077B-087B-6C49-B14B-3E8865D4B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="57600" windowHeight="35500" activeTab="4" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="718">
   <si>
     <t>bsc_banco</t>
   </si>
@@ -2181,13 +2181,19 @@
     <t>tipo_arquivo, documento</t>
   </si>
   <si>
-    <t>$rsRegistrosSVinculo</t>
-  </si>
-  <si>
-    <t>sv_</t>
-  </si>
-  <si>
-    <t>sv.</t>
+    <t xml:space="preserve">  `internet_banda_larga_velocidade` varchar(50) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `alimentacao_pnae_fnde_oferece` tinyint(1) DEFAULT '0',</t>
+  </si>
+  <si>
+    <t>$rsRegistrosUEEquipam</t>
+  </si>
+  <si>
+    <t>uee_</t>
+  </si>
+  <si>
+    <t>uee.</t>
   </si>
 </sst>
 </file>
@@ -2541,11 +2547,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2553,14 +2556,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14090,8 +14096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488E7A0-5FC7-8C46-9378-12741E521CD7}">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14114,127 +14120,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O2" t="str">
         <f>LEFT(L5,(41-LEN(G5)))</f>
-        <v xml:space="preserve">                                         </v>
+        <v xml:space="preserve">          </v>
       </c>
     </row>
     <row r="3" spans="1:19" s="39" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>567</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>568</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="53" t="s">
         <v>569</v>
       </c>
       <c r="N3" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="55" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="39" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="40" t="s">
-        <v>713</v>
-      </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="55"/>
+        <v>715</v>
+      </c>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>717</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>713</v>
+      </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="13" t="str">
         <f t="shared" ref="G5:G32" si="0">IFERROR(MID(D5,(FIND("`",D5)+1),(FIND("` ",D5)-(FIND("`",D5)+1))),"")</f>
-        <v/>
+        <v>internet_banda_larga_velocidade</v>
       </c>
       <c r="H5" s="13" t="str">
         <f>IFERROR(MID(D5,(FIND("` ",D5)+2),(IFERROR(FIND("NOT",D5),FIND("DEFAULT",D5))-(FIND("` ",D5)+3))),"")</f>
-        <v/>
+        <v>varchar(50)</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" ref="I5:I32" si="1">IFERROR(MID(D5,(FIND("(",D5)+1),(FIND(")",D5)-(FIND("(",D5)+1))),"")</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="J5" s="13" t="str">
         <f>IF((IFERROR(FIND("NOT NULL",D5),0))&gt;0,"true","false")</f>
@@ -14242,60 +14250,66 @@
       </c>
       <c r="K5" s="13" t="str">
         <f>CONCATENATE(B5,G5,", ")</f>
-        <v xml:space="preserve">sv_, </v>
+        <v xml:space="preserve">uee_internet_banda_larga_velocidade, </v>
       </c>
       <c r="L5" s="13" t="s">
         <v>571</v>
       </c>
       <c r="M5" s="13" t="str">
         <f>CONCATENATE(C5,G5,",")</f>
-        <v>sv.,</v>
+        <v>uee.internet_banda_larga_velocidade,</v>
       </c>
       <c r="N5" s="13" t="str">
         <f>CONCATENATE(N$4,"['",G5,"'] = '';")</f>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam['internet_banda_larga_velocidade'] = '';</v>
       </c>
       <c r="O5" s="13" t="str">
         <f>CONCATENATE("'name' =&gt; '",B5,G5,"',    ","'id' =&gt; '",B5,G5,"',    ","'maxlength' =&gt; ",I5,",    ","'value' =&gt; ",N$4,"['",G5,"'],    ","'required' =&gt; ",J5)</f>
-        <v>'name' =&gt; 'sv_',    'id' =&gt; 'sv_',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; 'uee_internet_banda_larga_velocidade',    'id' =&gt; 'uee_internet_banda_larga_velocidade',    'maxlength' =&gt; 50,    'value' =&gt; $rsRegistrosUEEquipam['internet_banda_larga_velocidade'],    'required' =&gt; false</v>
       </c>
       <c r="P5" s="13" t="str">
         <f>CONCATENATE("$",G5,LEFT(L5,(41-LEN(G5))),"= ",IF(OR(IFERROR(FIND("dt_",G5),0)&gt;0,IFERROR(FIND("_id",G5),0)&gt;0,G5="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B5,G5,"']?: ",IF(G5="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",G5),0)&gt;0,IFERROR(FIND("_id",G5),0)&gt;0,G5="status"),";",")));"))</f>
-        <v>$                                         = ucwords(strtolower(trim(strip_tags(@$_POST['sv_']?: ''))));</v>
+        <v>$internet_banda_larga_velocidade          = ucwords(strtolower(trim(strip_tags(@$_POST['uee_internet_banda_larga_velocidade']?: ''))));</v>
       </c>
       <c r="Q5" s="13" t="str">
         <f>CONCATENATE(G5," = ?,")</f>
-        <v xml:space="preserve"> = ?,</v>
+        <v>internet_banda_larga_velocidade = ?,</v>
       </c>
       <c r="R5" s="13" t="str">
         <f t="shared" ref="R5:R36" si="2">CONCATENATE(G5,",")</f>
-        <v>,</v>
+        <v>internet_banda_larga_velocidade,</v>
       </c>
       <c r="S5" s="14" t="str">
         <f t="shared" ref="S5:S25" si="3">CONCATENATE("$stmt-&gt;bindValue(",A5,", $",G5,IF(OR(IFERROR(FIND("dt_",G5),0)&gt;0,IFERROR(FIND("_id",G5),0)&gt;0,IFERROR(FIND("_ano",G5),0)&gt;0),"?: NULL);",");"))</f>
-        <v>$stmt-&gt;bindValue(1, $);</v>
+        <v>$stmt-&gt;bindValue(1, $internet_banda_larga_velocidade);</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>714</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>alimentacao_pnae_fnde_oferece</v>
       </c>
       <c r="H6" s="9" t="str">
         <f t="shared" ref="H6:H32" si="4">IFERROR(MID(D6,(FIND("` ",D6)+2),(IFERROR(FIND("NOT",D6),FIND("DEFAULT",D6))-(FIND("` ",D6)+3))),"")</f>
-        <v/>
+        <v>tinyint(1)</v>
       </c>
       <c r="I6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J6" s="9" t="str">
         <f>IF((IFERROR(FIND("NOT NULL",D6),0))&gt;0,"true","false")</f>
@@ -14303,38 +14317,38 @@
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" ref="K6:K69" si="5">CONCATENATE(B6,G6,", ")</f>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">uee_alimentacao_pnae_fnde_oferece, </v>
       </c>
       <c r="L6" s="9" t="s">
         <v>571</v>
       </c>
       <c r="M6" s="9" t="str">
         <f t="shared" ref="M6:M69" si="6">CONCATENATE(C6,G6,",")</f>
-        <v>,</v>
+        <v>uee.alimentacao_pnae_fnde_oferece,</v>
       </c>
       <c r="N6" s="9" t="str">
         <f t="shared" ref="N6:N69" si="7">CONCATENATE(N$4,"['",G6,"'] = '';")</f>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam['alimentacao_pnae_fnde_oferece'] = '';</v>
       </c>
       <c r="O6" s="9" t="str">
         <f t="shared" ref="O6:O69" si="8">CONCATENATE("'name' =&gt; '",B6,G6,"',    ","'id' =&gt; '",B6,G6,"',    ","'maxlength' =&gt; ",I6,",    ","'value' =&gt; ",N$4,"['",G6,"'],    ","'required' =&gt; ",J6)</f>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; 'uee_alimentacao_pnae_fnde_oferece',    'id' =&gt; 'uee_alimentacao_pnae_fnde_oferece',    'maxlength' =&gt; 1,    'value' =&gt; $rsRegistrosUEEquipam['alimentacao_pnae_fnde_oferece'],    'required' =&gt; false</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" ref="P6:P69" si="9">CONCATENATE("$",G6,LEFT(L6,(41-LEN(G6))),"= ",IF(OR(IFERROR(FIND("dt_",G6),0)&gt;0,IFERROR(FIND("_id",G6),0)&gt;0,G6="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B6,G6,"']?: ",IF(G6="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",G6),0)&gt;0,IFERROR(FIND("_id",G6),0)&gt;0,G6="status"),";",")));"))</f>
-        <v>$                                         = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
+        <v>$alimentacao_pnae_fnde_oferece            = ucwords(strtolower(trim(strip_tags(@$_POST['uee_alimentacao_pnae_fnde_oferece']?: ''))));</v>
       </c>
       <c r="Q6" s="9" t="str">
         <f t="shared" ref="Q6:Q69" si="10">CONCATENATE(G6," = ?,")</f>
-        <v xml:space="preserve"> = ?,</v>
+        <v>alimentacao_pnae_fnde_oferece = ?,</v>
       </c>
       <c r="R6" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>,</v>
+        <v>alimentacao_pnae_fnde_oferece,</v>
       </c>
       <c r="S6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>$stmt-&gt;bindValue(2, $);</v>
+        <v>$stmt-&gt;bindValue(2, $alimentacao_pnae_fnde_oferece);</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -14375,11 +14389,11 @@
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O7" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P7" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14436,11 +14450,11 @@
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O8" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P8" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14497,11 +14511,11 @@
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O9" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P9" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14558,11 +14572,11 @@
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O10" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P10" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14619,11 +14633,11 @@
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O11" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P11" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14680,11 +14694,11 @@
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O12" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P12" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14741,11 +14755,11 @@
       </c>
       <c r="N13" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O13" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P13" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14802,11 +14816,11 @@
       </c>
       <c r="N14" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O14" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P14" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14863,11 +14877,11 @@
       </c>
       <c r="N15" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O15" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P15" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14924,11 +14938,11 @@
       </c>
       <c r="N16" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O16" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P16" s="13" t="str">
         <f t="shared" si="9"/>
@@ -14985,11 +14999,11 @@
       </c>
       <c r="N17" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O17" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P17" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15046,11 +15060,11 @@
       </c>
       <c r="N18" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O18" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P18" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15107,11 +15121,11 @@
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O19" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P19" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15168,11 +15182,11 @@
       </c>
       <c r="N20" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O20" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P20" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15229,11 +15243,11 @@
       </c>
       <c r="N21" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O21" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P21" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15290,11 +15304,11 @@
       </c>
       <c r="N22" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O22" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P22" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15351,11 +15365,11 @@
       </c>
       <c r="N23" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O23" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P23" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15412,11 +15426,11 @@
       </c>
       <c r="N24" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O24" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P24" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15473,11 +15487,11 @@
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O25" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P25" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15534,11 +15548,11 @@
       </c>
       <c r="N26" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O26" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P26" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15595,11 +15609,11 @@
       </c>
       <c r="N27" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O27" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P27" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15656,11 +15670,11 @@
       </c>
       <c r="N28" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O28" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P28" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15717,11 +15731,11 @@
       </c>
       <c r="N29" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O29" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P29" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15778,11 +15792,11 @@
       </c>
       <c r="N30" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O30" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P30" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15839,11 +15853,11 @@
       </c>
       <c r="N31" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O31" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P31" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15900,11 +15914,11 @@
       </c>
       <c r="N32" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O32" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P32" s="13" t="str">
         <f t="shared" si="9"/>
@@ -15961,11 +15975,11 @@
       </c>
       <c r="N33" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O33" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P33" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16022,11 +16036,11 @@
       </c>
       <c r="N34" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O34" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P34" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16083,11 +16097,11 @@
       </c>
       <c r="N35" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O35" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P35" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16144,11 +16158,11 @@
       </c>
       <c r="N36" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O36" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P36" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16205,11 +16219,11 @@
       </c>
       <c r="N37" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O37" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P37" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16266,11 +16280,11 @@
       </c>
       <c r="N38" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O38" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P38" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16327,11 +16341,11 @@
       </c>
       <c r="N39" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O39" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P39" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16388,11 +16402,11 @@
       </c>
       <c r="N40" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O40" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P40" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16449,11 +16463,11 @@
       </c>
       <c r="N41" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O41" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P41" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16510,11 +16524,11 @@
       </c>
       <c r="N42" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O42" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P42" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16571,11 +16585,11 @@
       </c>
       <c r="N43" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O43" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P43" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16632,11 +16646,11 @@
       </c>
       <c r="N44" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O44" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P44" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16693,11 +16707,11 @@
       </c>
       <c r="N45" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O45" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P45" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16754,11 +16768,11 @@
       </c>
       <c r="N46" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O46" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P46" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16815,11 +16829,11 @@
       </c>
       <c r="N47" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O47" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P47" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16876,11 +16890,11 @@
       </c>
       <c r="N48" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O48" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P48" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16937,11 +16951,11 @@
       </c>
       <c r="N49" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O49" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P49" s="13" t="str">
         <f t="shared" si="9"/>
@@ -16998,11 +17012,11 @@
       </c>
       <c r="N50" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O50" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P50" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17059,11 +17073,11 @@
       </c>
       <c r="N51" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O51" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P51" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17120,11 +17134,11 @@
       </c>
       <c r="N52" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O52" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P52" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17181,11 +17195,11 @@
       </c>
       <c r="N53" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O53" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P53" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17242,11 +17256,11 @@
       </c>
       <c r="N54" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O54" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P54" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17303,11 +17317,11 @@
       </c>
       <c r="N55" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O55" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P55" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17364,11 +17378,11 @@
       </c>
       <c r="N56" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O56" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P56" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17425,11 +17439,11 @@
       </c>
       <c r="N57" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O57" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P57" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17486,11 +17500,11 @@
       </c>
       <c r="N58" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O58" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P58" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17547,11 +17561,11 @@
       </c>
       <c r="N59" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O59" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P59" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17608,11 +17622,11 @@
       </c>
       <c r="N60" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O60" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P60" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17669,11 +17683,11 @@
       </c>
       <c r="N61" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O61" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P61" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17730,11 +17744,11 @@
       </c>
       <c r="N62" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O62" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P62" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17791,11 +17805,11 @@
       </c>
       <c r="N63" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O63" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P63" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17852,11 +17866,11 @@
       </c>
       <c r="N64" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O64" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P64" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17913,11 +17927,11 @@
       </c>
       <c r="N65" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O65" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P65" s="13" t="str">
         <f t="shared" si="9"/>
@@ -17974,11 +17988,11 @@
       </c>
       <c r="N66" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O66" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P66" s="13" t="str">
         <f t="shared" si="9"/>
@@ -18035,11 +18049,11 @@
       </c>
       <c r="N67" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O67" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P67" s="13" t="str">
         <f t="shared" si="9"/>
@@ -18096,11 +18110,11 @@
       </c>
       <c r="N68" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O68" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P68" s="13" t="str">
         <f t="shared" si="9"/>
@@ -18157,11 +18171,11 @@
       </c>
       <c r="N69" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O69" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P69" s="13" t="str">
         <f t="shared" si="9"/>
@@ -18218,11 +18232,11 @@
       </c>
       <c r="N70" s="9" t="str">
         <f t="shared" ref="N70:N104" si="21">CONCATENATE(N$4,"['",G70,"'] = '';")</f>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O70" s="9" t="str">
         <f t="shared" ref="O70:O104" si="22">CONCATENATE("'name' =&gt; '",B70,G70,"',    ","'id' =&gt; '",B70,G70,"',    ","'maxlength' =&gt; ",I70,",    ","'value' =&gt; ",N$4,"['",G70,"'],    ","'required' =&gt; ",J70)</f>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P70" s="13" t="str">
         <f t="shared" ref="P70:P104" si="23">CONCATENATE("$",G70,LEFT(L70,(41-LEN(G70))),"= ",IF(OR(IFERROR(FIND("dt_",G70),0)&gt;0,IFERROR(FIND("_id",G70),0)&gt;0,G70="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B70,G70,"']?: ",IF(G70="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",G70),0)&gt;0,IFERROR(FIND("_id",G70),0)&gt;0,G70="status"),";",")));"))</f>
@@ -18279,11 +18293,11 @@
       </c>
       <c r="N71" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O71" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P71" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18340,11 +18354,11 @@
       </c>
       <c r="N72" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O72" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P72" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18401,11 +18415,11 @@
       </c>
       <c r="N73" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O73" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P73" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18462,11 +18476,11 @@
       </c>
       <c r="N74" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O74" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P74" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18523,11 +18537,11 @@
       </c>
       <c r="N75" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O75" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P75" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18584,11 +18598,11 @@
       </c>
       <c r="N76" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O76" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P76" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18645,11 +18659,11 @@
       </c>
       <c r="N77" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O77" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P77" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18706,11 +18720,11 @@
       </c>
       <c r="N78" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O78" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P78" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18767,11 +18781,11 @@
       </c>
       <c r="N79" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O79" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P79" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18828,11 +18842,11 @@
       </c>
       <c r="N80" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O80" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P80" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18889,11 +18903,11 @@
       </c>
       <c r="N81" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O81" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P81" s="13" t="str">
         <f t="shared" si="23"/>
@@ -18950,11 +18964,11 @@
       </c>
       <c r="N82" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O82" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P82" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19011,11 +19025,11 @@
       </c>
       <c r="N83" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O83" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P83" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19072,11 +19086,11 @@
       </c>
       <c r="N84" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O84" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P84" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19133,11 +19147,11 @@
       </c>
       <c r="N85" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O85" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P85" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19194,11 +19208,11 @@
       </c>
       <c r="N86" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O86" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P86" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19255,11 +19269,11 @@
       </c>
       <c r="N87" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O87" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P87" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19316,11 +19330,11 @@
       </c>
       <c r="N88" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O88" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P88" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19377,11 +19391,11 @@
       </c>
       <c r="N89" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O89" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P89" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19438,11 +19452,11 @@
       </c>
       <c r="N90" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O90" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P90" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19499,11 +19513,11 @@
       </c>
       <c r="N91" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O91" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P91" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19560,11 +19574,11 @@
       </c>
       <c r="N92" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O92" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P92" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19621,11 +19635,11 @@
       </c>
       <c r="N93" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O93" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P93" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19682,11 +19696,11 @@
       </c>
       <c r="N94" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O94" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P94" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19743,11 +19757,11 @@
       </c>
       <c r="N95" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O95" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P95" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19804,11 +19818,11 @@
       </c>
       <c r="N96" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O96" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P96" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19865,11 +19879,11 @@
       </c>
       <c r="N97" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O97" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P97" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19926,11 +19940,11 @@
       </c>
       <c r="N98" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O98" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P98" s="13" t="str">
         <f t="shared" si="23"/>
@@ -19987,11 +20001,11 @@
       </c>
       <c r="N99" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O99" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P99" s="13" t="str">
         <f t="shared" si="23"/>
@@ -20048,11 +20062,11 @@
       </c>
       <c r="N100" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O100" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P100" s="13" t="str">
         <f t="shared" si="23"/>
@@ -20109,11 +20123,11 @@
       </c>
       <c r="N101" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O101" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P101" s="13" t="str">
         <f t="shared" si="23"/>
@@ -20170,11 +20184,11 @@
       </c>
       <c r="N102" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O102" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P102" s="13" t="str">
         <f t="shared" si="23"/>
@@ -20231,11 +20245,11 @@
       </c>
       <c r="N103" s="9" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O103" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P103" s="13" t="str">
         <f t="shared" si="23"/>
@@ -20292,11 +20306,11 @@
       </c>
       <c r="N104" s="11" t="str">
         <f t="shared" si="21"/>
-        <v>$rsRegistrosSVinculo[''] = '';</v>
+        <v>$rsRegistrosUEEquipam[''] = '';</v>
       </c>
       <c r="O104" s="11" t="str">
         <f t="shared" si="22"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosSVinculo[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
       </c>
       <c r="P104" s="13" t="str">
         <f t="shared" si="23"/>
@@ -20318,14 +20332,6 @@
     <row r="105" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
@@ -20337,6 +20343,14 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Projeto/DB Tableas.xlsx
+++ b/Projeto/DB Tableas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65077B-087B-6C49-B14B-3E8865D4B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA983D20-F746-9E4B-AE94-66F3CEAE16C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="57600" windowHeight="35500" activeTab="4" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
+    <workbookView xWindow="28880" yWindow="-35500" windowWidth="32000" windowHeight="35500" activeTab="4" xr2:uid="{65F3778F-F7A3-5945-852B-B3CE144BC84D}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="722">
   <si>
     <t>bsc_banco</t>
   </si>
@@ -2181,19 +2181,31 @@
     <t>tipo_arquivo, documento</t>
   </si>
   <si>
-    <t xml:space="preserve">  `internet_banda_larga_velocidade` varchar(50) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `alimentacao_pnae_fnde_oferece` tinyint(1) DEFAULT '0',</t>
-  </si>
-  <si>
     <t>$rsRegistrosUEEquipam</t>
   </si>
   <si>
-    <t>uee_</t>
-  </si>
-  <si>
-    <t>uee.</t>
+    <t xml:space="preserve">  `id` int(11) NOT NULL AUTO_INCREMENT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `status` tinyint(1) NOT NULL DEFAULT '0',</t>
+  </si>
+  <si>
+    <t>ue_</t>
+  </si>
+  <si>
+    <t>ue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `dt_cadastro` timestamp NOT NULL DEFAULT CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `descricao` text,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `ue_ue_id` int(11) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `bsc_uo_publica_id` int(11) NOT NULL,</t>
   </si>
 </sst>
 </file>
@@ -2547,8 +2559,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2556,17 +2571,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14096,8 +14108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B488E7A0-5FC7-8C46-9378-12741E521CD7}">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14120,102 +14132,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O2" t="str">
         <f>LEFT(L5,(41-LEN(G5)))</f>
-        <v xml:space="preserve">          </v>
+        <v xml:space="preserve">                                       </v>
       </c>
     </row>
     <row r="3" spans="1:19" s="39" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>567</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="50" t="s">
         <v>569</v>
       </c>
       <c r="N3" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="54" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="39" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="40" t="s">
-        <v>715</v>
-      </c>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="56"/>
+        <v>713</v>
+      </c>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="55"/>
     </row>
     <row r="5" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
@@ -14228,60 +14240,60 @@
         <v>717</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="13" t="str">
         <f t="shared" ref="G5:G32" si="0">IFERROR(MID(D5,(FIND("`",D5)+1),(FIND("` ",D5)-(FIND("`",D5)+1))),"")</f>
-        <v>internet_banda_larga_velocidade</v>
+        <v>id</v>
       </c>
       <c r="H5" s="13" t="str">
         <f>IFERROR(MID(D5,(FIND("` ",D5)+2),(IFERROR(FIND("NOT",D5),FIND("DEFAULT",D5))-(FIND("` ",D5)+3))),"")</f>
-        <v>varchar(50)</v>
+        <v>int(11)</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" ref="I5:I32" si="1">IFERROR(MID(D5,(FIND("(",D5)+1),(FIND(")",D5)-(FIND("(",D5)+1))),"")</f>
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J5" s="13" t="str">
         <f>IF((IFERROR(FIND("NOT NULL",D5),0))&gt;0,"true","false")</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="K5" s="13" t="str">
         <f>CONCATENATE(B5,G5,", ")</f>
-        <v xml:space="preserve">uee_internet_banda_larga_velocidade, </v>
+        <v xml:space="preserve">ue_id, </v>
       </c>
       <c r="L5" s="13" t="s">
         <v>571</v>
       </c>
       <c r="M5" s="13" t="str">
         <f>CONCATENATE(C5,G5,",")</f>
-        <v>uee.internet_banda_larga_velocidade,</v>
+        <v>ue.id,</v>
       </c>
       <c r="N5" s="13" t="str">
         <f>CONCATENATE(N$4,"['",G5,"'] = '';")</f>
-        <v>$rsRegistrosUEEquipam['internet_banda_larga_velocidade'] = '';</v>
+        <v>$rsRegistrosUEEquipam['id'] = '';</v>
       </c>
       <c r="O5" s="13" t="str">
         <f>CONCATENATE("'name' =&gt; '",B5,G5,"',    ","'id' =&gt; '",B5,G5,"',    ","'maxlength' =&gt; ",I5,",    ","'value' =&gt; ",N$4,"['",G5,"'],    ","'required' =&gt; ",J5)</f>
-        <v>'name' =&gt; 'uee_internet_banda_larga_velocidade',    'id' =&gt; 'uee_internet_banda_larga_velocidade',    'maxlength' =&gt; 50,    'value' =&gt; $rsRegistrosUEEquipam['internet_banda_larga_velocidade'],    'required' =&gt; false</v>
+        <v>'name' =&gt; 'ue_id',    'id' =&gt; 'ue_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsRegistrosUEEquipam['id'],    'required' =&gt; true</v>
       </c>
       <c r="P5" s="13" t="str">
         <f>CONCATENATE("$",G5,LEFT(L5,(41-LEN(G5))),"= ",IF(OR(IFERROR(FIND("dt_",G5),0)&gt;0,IFERROR(FIND("_id",G5),0)&gt;0,G5="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B5,G5,"']?: ",IF(G5="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",G5),0)&gt;0,IFERROR(FIND("_id",G5),0)&gt;0,G5="status"),";",")));"))</f>
-        <v>$internet_banda_larga_velocidade          = ucwords(strtolower(trim(strip_tags(@$_POST['uee_internet_banda_larga_velocidade']?: ''))));</v>
+        <v>$id                                       = ucwords(strtolower(trim(strip_tags(@$_POST['ue_id']?: ''))));</v>
       </c>
       <c r="Q5" s="13" t="str">
         <f>CONCATENATE(G5," = ?,")</f>
-        <v>internet_banda_larga_velocidade = ?,</v>
+        <v>id = ?,</v>
       </c>
       <c r="R5" s="13" t="str">
         <f t="shared" ref="R5:R36" si="2">CONCATENATE(G5,",")</f>
-        <v>internet_banda_larga_velocidade,</v>
+        <v>id,</v>
       </c>
       <c r="S5" s="14" t="str">
         <f t="shared" ref="S5:S25" si="3">CONCATENATE("$stmt-&gt;bindValue(",A5,", $",G5,IF(OR(IFERROR(FIND("dt_",G5),0)&gt;0,IFERROR(FIND("_id",G5),0)&gt;0,IFERROR(FIND("_ano",G5),0)&gt;0),"?: NULL);",");"))</f>
-        <v>$stmt-&gt;bindValue(1, $internet_banda_larga_velocidade);</v>
+        <v>$stmt-&gt;bindValue(1, $id);</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -14295,13 +14307,13 @@
         <v>717</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>alimentacao_pnae_fnde_oferece</v>
+        <v>status</v>
       </c>
       <c r="H6" s="9" t="str">
         <f t="shared" ref="H6:H32" si="4">IFERROR(MID(D6,(FIND("` ",D6)+2),(IFERROR(FIND("NOT",D6),FIND("DEFAULT",D6))-(FIND("` ",D6)+3))),"")</f>
@@ -14313,60 +14325,66 @@
       </c>
       <c r="J6" s="9" t="str">
         <f>IF((IFERROR(FIND("NOT NULL",D6),0))&gt;0,"true","false")</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" ref="K6:K69" si="5">CONCATENATE(B6,G6,", ")</f>
-        <v xml:space="preserve">uee_alimentacao_pnae_fnde_oferece, </v>
+        <v xml:space="preserve">ue_status, </v>
       </c>
       <c r="L6" s="9" t="s">
         <v>571</v>
       </c>
       <c r="M6" s="9" t="str">
         <f t="shared" ref="M6:M69" si="6">CONCATENATE(C6,G6,",")</f>
-        <v>uee.alimentacao_pnae_fnde_oferece,</v>
+        <v>ue.status,</v>
       </c>
       <c r="N6" s="9" t="str">
         <f t="shared" ref="N6:N69" si="7">CONCATENATE(N$4,"['",G6,"'] = '';")</f>
-        <v>$rsRegistrosUEEquipam['alimentacao_pnae_fnde_oferece'] = '';</v>
+        <v>$rsRegistrosUEEquipam['status'] = '';</v>
       </c>
       <c r="O6" s="9" t="str">
         <f t="shared" ref="O6:O69" si="8">CONCATENATE("'name' =&gt; '",B6,G6,"',    ","'id' =&gt; '",B6,G6,"',    ","'maxlength' =&gt; ",I6,",    ","'value' =&gt; ",N$4,"['",G6,"'],    ","'required' =&gt; ",J6)</f>
-        <v>'name' =&gt; 'uee_alimentacao_pnae_fnde_oferece',    'id' =&gt; 'uee_alimentacao_pnae_fnde_oferece',    'maxlength' =&gt; 1,    'value' =&gt; $rsRegistrosUEEquipam['alimentacao_pnae_fnde_oferece'],    'required' =&gt; false</v>
+        <v>'name' =&gt; 'ue_status',    'id' =&gt; 'ue_status',    'maxlength' =&gt; 1,    'value' =&gt; $rsRegistrosUEEquipam['status'],    'required' =&gt; true</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" ref="P6:P69" si="9">CONCATENATE("$",G6,LEFT(L6,(41-LEN(G6))),"= ",IF(OR(IFERROR(FIND("dt_",G6),0)&gt;0,IFERROR(FIND("_id",G6),0)&gt;0,G6="status"),"","ucwords(strtolower(trim("),"strip_tags(@$_POST['",B6,G6,"']?: ",IF(G6="status","0)","'')"),IF(OR(IFERROR(FIND("dt_",G6),0)&gt;0,IFERROR(FIND("_id",G6),0)&gt;0,G6="status"),";",")));"))</f>
-        <v>$alimentacao_pnae_fnde_oferece            = ucwords(strtolower(trim(strip_tags(@$_POST['uee_alimentacao_pnae_fnde_oferece']?: ''))));</v>
+        <v>$status                                   = strip_tags(@$_POST['ue_status']?: 0);</v>
       </c>
       <c r="Q6" s="9" t="str">
         <f t="shared" ref="Q6:Q69" si="10">CONCATENATE(G6," = ?,")</f>
-        <v>alimentacao_pnae_fnde_oferece = ?,</v>
+        <v>status = ?,</v>
       </c>
       <c r="R6" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>alimentacao_pnae_fnde_oferece,</v>
+        <v>status,</v>
       </c>
       <c r="S6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>$stmt-&gt;bindValue(2, $alimentacao_pnae_fnde_oferece);</v>
+        <v>$stmt-&gt;bindValue(2, $status);</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>718</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>dt_cadastro</v>
       </c>
       <c r="H7" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>timestamp</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="shared" si="1"/>
@@ -14374,56 +14392,62 @@
       </c>
       <c r="J7" s="9" t="str">
         <f t="shared" ref="J7:J70" si="11">IF((IFERROR(FIND("NOT NULL",D7),0))&gt;0,"true","false")</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="K7" s="9" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">ue_dt_cadastro, </v>
       </c>
       <c r="L7" s="9" t="s">
         <v>571</v>
       </c>
       <c r="M7" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>,</v>
+        <v>ue.dt_cadastro,</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosUEEquipam[''] = '';</v>
+        <v>$rsRegistrosUEEquipam['dt_cadastro'] = '';</v>
       </c>
       <c r="O7" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; 'ue_dt_cadastro',    'id' =&gt; 'ue_dt_cadastro',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam['dt_cadastro'],    'required' =&gt; true</v>
       </c>
       <c r="P7" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>$                                         = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
+        <v>$dt_cadastro                              = strip_tags(@$_POST['ue_dt_cadastro']?: '');</v>
       </c>
       <c r="Q7" s="9" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> = ?,</v>
+        <v>dt_cadastro = ?,</v>
       </c>
       <c r="R7" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>,</v>
+        <v>dt_cadastro,</v>
       </c>
       <c r="S7" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>$stmt-&gt;bindValue(3, $);</v>
+        <v>$stmt-&gt;bindValue(3, $dt_cadastro?: NULL);</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>719</v>
+      </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>descricao</v>
       </c>
       <c r="H8" s="9" t="str">
         <f t="shared" si="4"/>
@@ -14439,160 +14463,172 @@
       </c>
       <c r="K8" s="9" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">ue_descricao, </v>
       </c>
       <c r="L8" s="9" t="s">
         <v>571</v>
       </c>
       <c r="M8" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>,</v>
+        <v>ue.descricao,</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosUEEquipam[''] = '';</v>
+        <v>$rsRegistrosUEEquipam['descricao'] = '';</v>
       </c>
       <c r="O8" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; 'ue_descricao',    'id' =&gt; 'ue_descricao',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam['descricao'],    'required' =&gt; false</v>
       </c>
       <c r="P8" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>$                                         = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
+        <v>$descricao                                = ucwords(strtolower(trim(strip_tags(@$_POST['ue_descricao']?: ''))));</v>
       </c>
       <c r="Q8" s="9" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> = ?,</v>
+        <v>descricao = ?,</v>
       </c>
       <c r="R8" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>,</v>
+        <v>descricao,</v>
       </c>
       <c r="S8" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>$stmt-&gt;bindValue(4, $);</v>
+        <v>$stmt-&gt;bindValue(4, $descricao);</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>720</v>
+      </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>ue_ue_id</v>
       </c>
       <c r="H9" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>int(11)</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="K9" s="9" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">ue_ue_ue_id, </v>
       </c>
       <c r="L9" s="9" t="s">
         <v>571</v>
       </c>
       <c r="M9" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>,</v>
+        <v>ue.ue_ue_id,</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosUEEquipam[''] = '';</v>
+        <v>$rsRegistrosUEEquipam['ue_ue_id'] = '';</v>
       </c>
       <c r="O9" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; 'ue_ue_ue_id',    'id' =&gt; 'ue_ue_ue_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsRegistrosUEEquipam['ue_ue_id'],    'required' =&gt; true</v>
       </c>
       <c r="P9" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>$                                         = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
+        <v>$ue_ue_id                                 = strip_tags(@$_POST['ue_ue_ue_id']?: '');</v>
       </c>
       <c r="Q9" s="9" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> = ?,</v>
+        <v>ue_ue_id = ?,</v>
       </c>
       <c r="R9" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>,</v>
+        <v>ue_ue_id,</v>
       </c>
       <c r="S9" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>$stmt-&gt;bindValue(5, $);</v>
+        <v>$stmt-&gt;bindValue(5, $ue_ue_id?: NULL);</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>721</v>
+      </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>bsc_uo_publica_id</v>
       </c>
       <c r="H10" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>int(11)</v>
       </c>
       <c r="I10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="shared" si="11"/>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="K10" s="9" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">, </v>
+        <v xml:space="preserve">ue_bsc_uo_publica_id, </v>
       </c>
       <c r="L10" s="9" t="s">
         <v>571</v>
       </c>
       <c r="M10" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>,</v>
+        <v>ue.bsc_uo_publica_id,</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>$rsRegistrosUEEquipam[''] = '';</v>
+        <v>$rsRegistrosUEEquipam['bsc_uo_publica_id'] = '';</v>
       </c>
       <c r="O10" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>'name' =&gt; '',    'id' =&gt; '',    'maxlength' =&gt; ,    'value' =&gt; $rsRegistrosUEEquipam[''],    'required' =&gt; false</v>
+        <v>'name' =&gt; 'ue_bsc_uo_publica_id',    'id' =&gt; 'ue_bsc_uo_publica_id',    'maxlength' =&gt; 11,    'value' =&gt; $rsRegistrosUEEquipam['bsc_uo_publica_id'],    'required' =&gt; true</v>
       </c>
       <c r="P10" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>$                                         = ucwords(strtolower(trim(strip_tags(@$_POST['']?: ''))));</v>
+        <v>$bsc_uo_publica_id                        = strip_tags(@$_POST['ue_bsc_uo_publica_id']?: '');</v>
       </c>
       <c r="Q10" s="9" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> = ?,</v>
+        <v>bsc_uo_publica_id = ?,</v>
       </c>
       <c r="R10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>,</v>
+        <v>bsc_uo_publica_id,</v>
       </c>
       <c r="S10" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>$stmt-&gt;bindValue(6, $);</v>
+        <v>$stmt-&gt;bindValue(6, $bsc_uo_publica_id?: NULL);</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -20332,6 +20368,14 @@
     <row r="105" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
@@ -20343,14 +20387,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
